--- a/The research project/Tie Ma - UofAB - unadjusted residential monthly sales - provincial - Jan 1980 to Feb 2023.xlsx
+++ b/The research project/Tie Ma - UofAB - unadjusted residential monthly sales - provincial - Jan 1980 to Feb 2023.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tie/Documents/GitHub/ECON-493-forcasting-economy/The research project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319DEDE3-CD58-804F-821A-F395FA179D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B3F9D-4C80-E341-9533-5CF75F366ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>Region</t>
   </si>
@@ -1613,6 +1626,10 @@
   </si>
   <si>
     <t>Jan 1980</t>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1961,7 +1978,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2091,6 +2108,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2136,7 +2164,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2149,6 +2177,10 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2504,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M519"/>
+  <dimension ref="A1:N519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2525,9 +2557,10 @@
     <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2567,8 +2600,11 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2608,8 +2644,12 @@
       <c r="M2" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="7">
+        <f>SUM(B2:M2)</f>
+        <v>29569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2649,8 +2689,12 @@
       <c r="M3" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N66" si="0">SUM(B3:M3)</f>
+        <v>20886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2690,8 +2734,12 @@
       <c r="M4" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="7">
+        <f t="shared" si="0"/>
+        <v>21798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2731,8 +2779,12 @@
       <c r="M5" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>30077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2772,8 +2824,12 @@
       <c r="M6" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>33575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2813,8 +2869,12 @@
       <c r="M7" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>34414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2854,8 +2914,12 @@
       <c r="M8" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>38225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2895,8 +2959,12 @@
       <c r="M9" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="7">
+        <f t="shared" si="0"/>
+        <v>37913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2936,8 +3004,12 @@
       <c r="M10" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="7">
+        <f t="shared" si="0"/>
+        <v>47933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -2977,8 +3049,12 @@
       <c r="M11" s="4">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="7">
+        <f t="shared" si="0"/>
+        <v>53508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -3018,8 +3094,12 @@
       <c r="M12" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="7">
+        <f t="shared" si="0"/>
+        <v>54715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -3059,8 +3139,12 @@
       <c r="M13" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>63486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3100,8 +3184,12 @@
       <c r="M14" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="7">
+        <f t="shared" si="0"/>
+        <v>49289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3141,8 +3229,12 @@
       <c r="M15" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="7">
+        <f t="shared" si="0"/>
+        <v>33282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -3182,8 +3274,12 @@
       <c r="M16" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="7">
+        <f t="shared" si="0"/>
+        <v>35858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3223,8 +3319,12 @@
       <c r="M17" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="7">
+        <f t="shared" si="0"/>
+        <v>49316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -3264,8 +3364,12 @@
       <c r="M18" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="7">
+        <f t="shared" si="0"/>
+        <v>52608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3305,8 +3409,12 @@
       <c r="M19" s="4">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="7">
+        <f t="shared" si="0"/>
+        <v>50835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -3346,8 +3454,12 @@
       <c r="M20" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="7">
+        <f t="shared" si="0"/>
+        <v>50972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3387,8 +3499,12 @@
       <c r="M21" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="7">
+        <f t="shared" si="0"/>
+        <v>53720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3428,8 +3544,12 @@
       <c r="M22" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="7">
+        <f t="shared" si="0"/>
+        <v>63322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -3469,8 +3589,12 @@
       <c r="M23" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="7">
+        <f t="shared" si="0"/>
+        <v>68643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -3510,8 +3634,12 @@
       <c r="M24" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="7">
+        <f t="shared" si="0"/>
+        <v>73967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3551,8 +3679,12 @@
       <c r="M25" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="7">
+        <f t="shared" si="0"/>
+        <v>76308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -3592,8 +3724,12 @@
       <c r="M26" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="7">
+        <f t="shared" si="0"/>
+        <v>53684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -3633,8 +3769,12 @@
       <c r="M27" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="7">
+        <f t="shared" si="0"/>
+        <v>37161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -3674,8 +3814,12 @@
       <c r="M28" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="7">
+        <f t="shared" si="0"/>
+        <v>39965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -3715,8 +3859,12 @@
       <c r="M29" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="7">
+        <f t="shared" si="0"/>
+        <v>49689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -3756,8 +3904,12 @@
       <c r="M30" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="7">
+        <f t="shared" si="0"/>
+        <v>59351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -3797,8 +3949,12 @@
       <c r="M31" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="7">
+        <f t="shared" si="0"/>
+        <v>61611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -3838,8 +3994,12 @@
       <c r="M32" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="7">
+        <f t="shared" si="0"/>
+        <v>59224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
@@ -3879,8 +4039,12 @@
       <c r="M33" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="7">
+        <f t="shared" si="0"/>
+        <v>63574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -3920,8 +4084,12 @@
       <c r="M34" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="7">
+        <f t="shared" si="0"/>
+        <v>55840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -3961,8 +4129,12 @@
       <c r="M35" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="7">
+        <f t="shared" si="0"/>
+        <v>33605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
@@ -4002,8 +4174,12 @@
       <c r="M36" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="7">
+        <f t="shared" si="0"/>
+        <v>20836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -4043,8 +4219,12 @@
       <c r="M37" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="7">
+        <f t="shared" si="0"/>
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -4084,8 +4264,12 @@
       <c r="M38" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="7">
+        <f t="shared" si="0"/>
+        <v>38405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
@@ -4125,8 +4309,12 @@
       <c r="M39" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="7">
+        <f t="shared" si="0"/>
+        <v>27333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -4166,8 +4354,12 @@
       <c r="M40" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="7">
+        <f t="shared" si="0"/>
+        <v>27139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
@@ -4207,8 +4399,12 @@
       <c r="M41" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="7">
+        <f t="shared" si="0"/>
+        <v>37542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
@@ -4248,8 +4444,12 @@
       <c r="M42" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="7">
+        <f t="shared" si="0"/>
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -4289,8 +4489,12 @@
       <c r="M43" s="4">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="7">
+        <f t="shared" si="0"/>
+        <v>42213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
@@ -4330,8 +4534,12 @@
       <c r="M44" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="7">
+        <f t="shared" si="0"/>
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -4371,8 +4579,12 @@
       <c r="M45" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="7">
+        <f t="shared" si="0"/>
+        <v>48193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
@@ -4412,8 +4624,12 @@
       <c r="M46" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="7">
+        <f t="shared" si="0"/>
+        <v>48279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -4453,8 +4669,12 @@
       <c r="M47" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="7">
+        <f t="shared" si="0"/>
+        <v>55149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="3" t="s">
         <v>59</v>
       </c>
@@ -4494,8 +4714,12 @@
       <c r="M48" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="7">
+        <f t="shared" si="0"/>
+        <v>48714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="3" t="s">
         <v>60</v>
       </c>
@@ -4535,8 +4759,12 @@
       <c r="M49" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="7">
+        <f t="shared" si="0"/>
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
@@ -4576,8 +4804,12 @@
       <c r="M50" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="7">
+        <f t="shared" si="0"/>
+        <v>30189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
@@ -4617,8 +4849,12 @@
       <c r="M51" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="7">
+        <f t="shared" si="0"/>
+        <v>24431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
@@ -4658,8 +4894,12 @@
       <c r="M52" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="7">
+        <f t="shared" si="0"/>
+        <v>22140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="3" t="s">
         <v>64</v>
       </c>
@@ -4699,8 +4939,12 @@
       <c r="M53" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="7">
+        <f t="shared" si="0"/>
+        <v>33599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4740,8 +4984,12 @@
       <c r="M54" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="7">
+        <f t="shared" si="0"/>
+        <v>39619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="3" t="s">
         <v>66</v>
       </c>
@@ -4781,8 +5029,12 @@
       <c r="M55" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="7">
+        <f t="shared" si="0"/>
+        <v>36448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="3" t="s">
         <v>67</v>
       </c>
@@ -4822,8 +5074,12 @@
       <c r="M56" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="7">
+        <f t="shared" si="0"/>
+        <v>41642</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="3" t="s">
         <v>68</v>
       </c>
@@ -4863,8 +5119,12 @@
       <c r="M57" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="7">
+        <f t="shared" si="0"/>
+        <v>42622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="3" t="s">
         <v>69</v>
       </c>
@@ -4904,8 +5164,12 @@
       <c r="M58" s="4">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="7">
+        <f t="shared" si="0"/>
+        <v>47890</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="3" t="s">
         <v>70</v>
       </c>
@@ -4945,8 +5209,12 @@
       <c r="M59" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="7">
+        <f t="shared" si="0"/>
+        <v>51577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
@@ -4986,8 +5254,12 @@
       <c r="M60" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="7">
+        <f t="shared" si="0"/>
+        <v>46640</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="3" t="s">
         <v>72</v>
       </c>
@@ -5027,8 +5299,12 @@
       <c r="M61" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="7">
+        <f t="shared" si="0"/>
+        <v>42286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="3" t="s">
         <v>73</v>
       </c>
@@ -5068,8 +5344,12 @@
       <c r="M62" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="7">
+        <f t="shared" si="0"/>
+        <v>31526</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="3" t="s">
         <v>74</v>
       </c>
@@ -5109,8 +5389,12 @@
       <c r="M63" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="7">
+        <f t="shared" si="0"/>
+        <v>25245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -5150,8 +5434,12 @@
       <c r="M64" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="7">
+        <f t="shared" si="0"/>
+        <v>27233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -5191,8 +5479,12 @@
       <c r="M65" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="7">
+        <f t="shared" si="0"/>
+        <v>38169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -5232,8 +5524,12 @@
       <c r="M66" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="7">
+        <f t="shared" si="0"/>
+        <v>40759</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
@@ -5273,8 +5569,12 @@
       <c r="M67" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="7">
+        <f t="shared" ref="N67:N130" si="1">SUM(B67:M67)</f>
+        <v>39573</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
@@ -5314,8 +5614,12 @@
       <c r="M68" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="7">
+        <f t="shared" si="1"/>
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
@@ -5355,8 +5659,12 @@
       <c r="M69" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="7">
+        <f t="shared" si="1"/>
+        <v>42715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
@@ -5396,8 +5704,12 @@
       <c r="M70" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="7">
+        <f t="shared" si="1"/>
+        <v>53046</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="3" t="s">
         <v>82</v>
       </c>
@@ -5437,8 +5749,12 @@
       <c r="M71" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="7">
+        <f t="shared" si="1"/>
+        <v>60478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
@@ -5478,8 +5794,12 @@
       <c r="M72" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="7">
+        <f t="shared" si="1"/>
+        <v>53533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
@@ -5519,8 +5839,12 @@
       <c r="M73" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="7">
+        <f t="shared" si="1"/>
+        <v>54105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="3" t="s">
         <v>85</v>
       </c>
@@ -5560,8 +5884,12 @@
       <c r="M74" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="7">
+        <f t="shared" si="1"/>
+        <v>37625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="3" t="s">
         <v>86</v>
       </c>
@@ -5601,8 +5929,12 @@
       <c r="M75" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="7">
+        <f t="shared" si="1"/>
+        <v>25549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -5642,8 +5974,12 @@
       <c r="M76" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="7">
+        <f t="shared" si="1"/>
+        <v>26132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="3" t="s">
         <v>88</v>
       </c>
@@ -5683,8 +6019,12 @@
       <c r="M77" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="7">
+        <f t="shared" si="1"/>
+        <v>37232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="3" t="s">
         <v>89</v>
       </c>
@@ -5724,8 +6064,12 @@
       <c r="M78" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="7">
+        <f t="shared" si="1"/>
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="3" t="s">
         <v>90</v>
       </c>
@@ -5765,8 +6109,12 @@
       <c r="M79" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="7">
+        <f t="shared" si="1"/>
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="3" t="s">
         <v>91</v>
       </c>
@@ -5806,8 +6154,12 @@
       <c r="M80" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="7">
+        <f t="shared" si="1"/>
+        <v>47593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
@@ -5847,8 +6199,12 @@
       <c r="M81" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="7">
+        <f t="shared" si="1"/>
+        <v>48538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="3" t="s">
         <v>93</v>
       </c>
@@ -5888,8 +6244,12 @@
       <c r="M82" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="7">
+        <f t="shared" si="1"/>
+        <v>60179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="3" t="s">
         <v>94</v>
       </c>
@@ -5929,8 +6289,12 @@
       <c r="M83" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="7">
+        <f t="shared" si="1"/>
+        <v>61366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="3" t="s">
         <v>95</v>
       </c>
@@ -5970,8 +6334,12 @@
       <c r="M84" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="7">
+        <f t="shared" si="1"/>
+        <v>57940</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -6011,8 +6379,12 @@
       <c r="M85" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="7">
+        <f t="shared" si="1"/>
+        <v>50931</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="3" t="s">
         <v>97</v>
       </c>
@@ -6052,8 +6424,12 @@
       <c r="M86" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="7">
+        <f t="shared" si="1"/>
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="3" t="s">
         <v>98</v>
       </c>
@@ -6093,8 +6469,12 @@
       <c r="M87" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="7">
+        <f t="shared" si="1"/>
+        <v>25082</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="3" t="s">
         <v>99</v>
       </c>
@@ -6134,8 +6514,12 @@
       <c r="M88" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="7">
+        <f t="shared" si="1"/>
+        <v>27622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="3" t="s">
         <v>100</v>
       </c>
@@ -6175,8 +6559,12 @@
       <c r="M89" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="7">
+        <f t="shared" si="1"/>
+        <v>36841</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="3" t="s">
         <v>101</v>
       </c>
@@ -6216,8 +6604,12 @@
       <c r="M90" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="7">
+        <f t="shared" si="1"/>
+        <v>41773</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="3" t="s">
         <v>102</v>
       </c>
@@ -6257,8 +6649,12 @@
       <c r="M91" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="7">
+        <f t="shared" si="1"/>
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="3" t="s">
         <v>103</v>
       </c>
@@ -6298,8 +6694,12 @@
       <c r="M92" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="7">
+        <f t="shared" si="1"/>
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="3" t="s">
         <v>104</v>
       </c>
@@ -6339,8 +6739,12 @@
       <c r="M93" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="7">
+        <f t="shared" si="1"/>
+        <v>50066</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="3" t="s">
         <v>105</v>
       </c>
@@ -6380,8 +6784,12 @@
       <c r="M94" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="7">
+        <f t="shared" si="1"/>
+        <v>57349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="3" t="s">
         <v>106</v>
       </c>
@@ -6421,8 +6829,12 @@
       <c r="M95" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="7">
+        <f t="shared" si="1"/>
+        <v>55765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="3" t="s">
         <v>107</v>
       </c>
@@ -6462,8 +6874,12 @@
       <c r="M96" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="7">
+        <f t="shared" si="1"/>
+        <v>52442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="3" t="s">
         <v>108</v>
       </c>
@@ -6503,8 +6919,12 @@
       <c r="M97" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="7">
+        <f t="shared" si="1"/>
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="3" t="s">
         <v>109</v>
       </c>
@@ -6544,8 +6964,12 @@
       <c r="M98" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="7">
+        <f t="shared" si="1"/>
+        <v>32558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="3" t="s">
         <v>110</v>
       </c>
@@ -6585,8 +7009,12 @@
       <c r="M99" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="7">
+        <f t="shared" si="1"/>
+        <v>23085</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="3" t="s">
         <v>111</v>
       </c>
@@ -6626,8 +7054,12 @@
       <c r="M100" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="7">
+        <f t="shared" si="1"/>
+        <v>24980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="3" t="s">
         <v>112</v>
       </c>
@@ -6667,8 +7099,12 @@
       <c r="M101" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="7">
+        <f t="shared" si="1"/>
+        <v>33287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="3" t="s">
         <v>113</v>
       </c>
@@ -6708,8 +7144,12 @@
       <c r="M102" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="7">
+        <f t="shared" si="1"/>
+        <v>41911</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="3" t="s">
         <v>114</v>
       </c>
@@ -6749,8 +7189,12 @@
       <c r="M103" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="7">
+        <f t="shared" si="1"/>
+        <v>42407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="3" t="s">
         <v>115</v>
       </c>
@@ -6790,8 +7234,12 @@
       <c r="M104" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="7">
+        <f t="shared" si="1"/>
+        <v>41368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="3" t="s">
         <v>116</v>
       </c>
@@ -6831,8 +7279,12 @@
       <c r="M105" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="7">
+        <f t="shared" si="1"/>
+        <v>48437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="3" t="s">
         <v>117</v>
       </c>
@@ -6872,8 +7324,12 @@
       <c r="M106" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="7">
+        <f t="shared" si="1"/>
+        <v>51644</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="3" t="s">
         <v>118</v>
       </c>
@@ -6913,8 +7369,12 @@
       <c r="M107" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="7">
+        <f t="shared" si="1"/>
+        <v>54418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="3" t="s">
         <v>119</v>
       </c>
@@ -6954,8 +7414,12 @@
       <c r="M108" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="7">
+        <f t="shared" si="1"/>
+        <v>47878</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="3" t="s">
         <v>120</v>
       </c>
@@ -6995,8 +7459,12 @@
       <c r="M109" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="7">
+        <f t="shared" si="1"/>
+        <v>41320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="3" t="s">
         <v>121</v>
       </c>
@@ -7036,8 +7504,12 @@
       <c r="M110" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="7">
+        <f t="shared" si="1"/>
+        <v>31794</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="3" t="s">
         <v>122</v>
       </c>
@@ -7077,8 +7549,12 @@
       <c r="M111" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="7">
+        <f t="shared" si="1"/>
+        <v>23468</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="3" t="s">
         <v>123</v>
       </c>
@@ -7118,8 +7594,12 @@
       <c r="M112" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="7">
+        <f t="shared" si="1"/>
+        <v>23068</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="3" t="s">
         <v>124</v>
       </c>
@@ -7159,8 +7639,12 @@
       <c r="M113" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" s="7">
+        <f t="shared" si="1"/>
+        <v>32325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="3" t="s">
         <v>125</v>
       </c>
@@ -7200,8 +7684,12 @@
       <c r="M114" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="7">
+        <f t="shared" si="1"/>
+        <v>38868</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="3" t="s">
         <v>126</v>
       </c>
@@ -7241,8 +7729,12 @@
       <c r="M115" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="7">
+        <f t="shared" si="1"/>
+        <v>38208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="3" t="s">
         <v>127</v>
       </c>
@@ -7282,8 +7774,12 @@
       <c r="M116" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" s="7">
+        <f t="shared" si="1"/>
+        <v>40376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="3" t="s">
         <v>128</v>
       </c>
@@ -7323,8 +7819,12 @@
       <c r="M117" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="7">
+        <f t="shared" si="1"/>
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="3" t="s">
         <v>129</v>
       </c>
@@ -7364,8 +7864,12 @@
       <c r="M118" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" s="7">
+        <f t="shared" si="1"/>
+        <v>46185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="3" t="s">
         <v>130</v>
       </c>
@@ -7405,8 +7909,12 @@
       <c r="M119" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="7">
+        <f t="shared" si="1"/>
+        <v>51518</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="3" t="s">
         <v>131</v>
       </c>
@@ -7446,8 +7954,12 @@
       <c r="M120" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="7">
+        <f t="shared" si="1"/>
+        <v>47687</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="3" t="s">
         <v>132</v>
       </c>
@@ -7487,8 +7999,12 @@
       <c r="M121" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" s="7">
+        <f t="shared" si="1"/>
+        <v>39254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="3" t="s">
         <v>133</v>
       </c>
@@ -7528,8 +8044,12 @@
       <c r="M122" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="7">
+        <f t="shared" si="1"/>
+        <v>30906</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="3" t="s">
         <v>134</v>
       </c>
@@ -7569,8 +8089,12 @@
       <c r="M123" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="7">
+        <f t="shared" si="1"/>
+        <v>23425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="3" t="s">
         <v>135</v>
       </c>
@@ -7610,8 +8134,12 @@
       <c r="M124" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" s="7">
+        <f t="shared" si="1"/>
+        <v>20469</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="3" t="s">
         <v>136</v>
       </c>
@@ -7651,8 +8179,12 @@
       <c r="M125" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" s="7">
+        <f t="shared" si="1"/>
+        <v>30414</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="3" t="s">
         <v>137</v>
       </c>
@@ -7692,8 +8224,12 @@
       <c r="M126" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" s="7">
+        <f t="shared" si="1"/>
+        <v>35970</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="3" t="s">
         <v>138</v>
       </c>
@@ -7733,8 +8269,12 @@
       <c r="M127" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127" s="7">
+        <f t="shared" si="1"/>
+        <v>32246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="3" t="s">
         <v>139</v>
       </c>
@@ -7774,8 +8314,12 @@
       <c r="M128" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128" s="7">
+        <f t="shared" si="1"/>
+        <v>36315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="3" t="s">
         <v>140</v>
       </c>
@@ -7815,8 +8359,12 @@
       <c r="M129" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129" s="7">
+        <f t="shared" si="1"/>
+        <v>40875</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="3" t="s">
         <v>141</v>
       </c>
@@ -7856,8 +8404,12 @@
       <c r="M130" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130" s="7">
+        <f t="shared" si="1"/>
+        <v>46558</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="3" t="s">
         <v>142</v>
       </c>
@@ -7897,8 +8449,12 @@
       <c r="M131" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131" s="7">
+        <f t="shared" ref="N131:N194" si="2">SUM(B131:M131)</f>
+        <v>53081</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="3" t="s">
         <v>143</v>
       </c>
@@ -7938,8 +8494,12 @@
       <c r="M132" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132" s="7">
+        <f t="shared" si="2"/>
+        <v>49364</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="3" t="s">
         <v>144</v>
       </c>
@@ -7979,8 +8539,12 @@
       <c r="M133" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133" s="7">
+        <f t="shared" si="2"/>
+        <v>46544</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="3" t="s">
         <v>145</v>
       </c>
@@ -8020,8 +8584,12 @@
       <c r="M134" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134" s="7">
+        <f t="shared" si="2"/>
+        <v>37023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="3" t="s">
         <v>146</v>
       </c>
@@ -8061,8 +8629,12 @@
       <c r="M135" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135" s="7">
+        <f t="shared" si="2"/>
+        <v>24943</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="3" t="s">
         <v>147</v>
       </c>
@@ -8102,8 +8674,12 @@
       <c r="M136" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136" s="7">
+        <f t="shared" si="2"/>
+        <v>24846</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="3" t="s">
         <v>148</v>
       </c>
@@ -8143,8 +8719,12 @@
       <c r="M137" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137" s="7">
+        <f t="shared" si="2"/>
+        <v>34661</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="3" t="s">
         <v>149</v>
       </c>
@@ -8184,8 +8764,12 @@
       <c r="M138" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138" s="7">
+        <f t="shared" si="2"/>
+        <v>36134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="3" t="s">
         <v>150</v>
       </c>
@@ -8225,8 +8809,12 @@
       <c r="M139" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139" s="7">
+        <f t="shared" si="2"/>
+        <v>38193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="3" t="s">
         <v>151</v>
       </c>
@@ -8266,8 +8854,12 @@
       <c r="M140" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140" s="7">
+        <f t="shared" si="2"/>
+        <v>39839</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="3" t="s">
         <v>152</v>
       </c>
@@ -8307,8 +8899,12 @@
       <c r="M141" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141" s="7">
+        <f t="shared" si="2"/>
+        <v>39585</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="3" t="s">
         <v>153</v>
       </c>
@@ -8348,8 +8944,12 @@
       <c r="M142" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142" s="7">
+        <f t="shared" si="2"/>
+        <v>48565</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="3" t="s">
         <v>154</v>
       </c>
@@ -8389,8 +8989,12 @@
       <c r="M143" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143" s="7">
+        <f t="shared" si="2"/>
+        <v>48682</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="3" t="s">
         <v>155</v>
       </c>
@@ -8430,8 +9034,12 @@
       <c r="M144" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144" s="7">
+        <f t="shared" si="2"/>
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="3" t="s">
         <v>156</v>
       </c>
@@ -8471,8 +9079,12 @@
       <c r="M145" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145" s="7">
+        <f t="shared" si="2"/>
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="3" t="s">
         <v>157</v>
       </c>
@@ -8512,8 +9124,12 @@
       <c r="M146" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146" s="7">
+        <f t="shared" si="2"/>
+        <v>34026</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="3" t="s">
         <v>158</v>
       </c>
@@ -8553,8 +9169,12 @@
       <c r="M147" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" s="7">
+        <f t="shared" si="2"/>
+        <v>23826</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="3" t="s">
         <v>159</v>
       </c>
@@ -8594,8 +9214,12 @@
       <c r="M148" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148" s="7">
+        <f t="shared" si="2"/>
+        <v>23593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="3" t="s">
         <v>160</v>
       </c>
@@ -8635,8 +9259,12 @@
       <c r="M149" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149" s="7">
+        <f t="shared" si="2"/>
+        <v>32736</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="3" t="s">
         <v>161</v>
       </c>
@@ -8676,8 +9304,12 @@
       <c r="M150" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150" s="7">
+        <f t="shared" si="2"/>
+        <v>33077</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="3" t="s">
         <v>162</v>
       </c>
@@ -8717,8 +9349,12 @@
       <c r="M151" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151" s="7">
+        <f t="shared" si="2"/>
+        <v>34094</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="3" t="s">
         <v>163</v>
       </c>
@@ -8758,8 +9394,12 @@
       <c r="M152" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152" s="7">
+        <f t="shared" si="2"/>
+        <v>34152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="3" t="s">
         <v>164</v>
       </c>
@@ -8799,8 +9439,12 @@
       <c r="M153" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153" s="7">
+        <f t="shared" si="2"/>
+        <v>35237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="3" t="s">
         <v>165</v>
       </c>
@@ -8840,8 +9484,12 @@
       <c r="M154" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154" s="7">
+        <f t="shared" si="2"/>
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="3" t="s">
         <v>166</v>
       </c>
@@ -8881,8 +9529,12 @@
       <c r="M155" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155" s="7">
+        <f t="shared" si="2"/>
+        <v>47411</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="3" t="s">
         <v>167</v>
       </c>
@@ -8922,8 +9574,12 @@
       <c r="M156" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="N156" s="7">
+        <f t="shared" si="2"/>
+        <v>52214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="3" t="s">
         <v>168</v>
       </c>
@@ -8963,8 +9619,12 @@
       <c r="M157" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157" s="7">
+        <f t="shared" si="2"/>
+        <v>49151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="3" t="s">
         <v>169</v>
       </c>
@@ -9004,8 +9664,12 @@
       <c r="M158" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="N158" s="7">
+        <f t="shared" si="2"/>
+        <v>36148</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="3" t="s">
         <v>170</v>
       </c>
@@ -9045,8 +9709,12 @@
       <c r="M159" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159" s="7">
+        <f t="shared" si="2"/>
+        <v>25571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="3" t="s">
         <v>171</v>
       </c>
@@ -9086,8 +9754,12 @@
       <c r="M160" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="N160" s="7">
+        <f t="shared" si="2"/>
+        <v>27645</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="3" t="s">
         <v>172</v>
       </c>
@@ -9127,8 +9799,12 @@
       <c r="M161" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161" s="7">
+        <f t="shared" si="2"/>
+        <v>36292</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="3" t="s">
         <v>173</v>
       </c>
@@ -9168,8 +9844,12 @@
       <c r="M162" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162" s="7">
+        <f t="shared" si="2"/>
+        <v>42338</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="3" t="s">
         <v>174</v>
       </c>
@@ -9209,8 +9889,12 @@
       <c r="M163" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N163" s="7">
+        <f t="shared" si="2"/>
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="3" t="s">
         <v>175</v>
       </c>
@@ -9250,8 +9934,12 @@
       <c r="M164" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164" s="7">
+        <f t="shared" si="2"/>
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="3" t="s">
         <v>176</v>
       </c>
@@ -9291,8 +9979,12 @@
       <c r="M165" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165" s="7">
+        <f t="shared" si="2"/>
+        <v>50376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="3" t="s">
         <v>177</v>
       </c>
@@ -9332,8 +10024,12 @@
       <c r="M166" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166" s="7">
+        <f t="shared" si="2"/>
+        <v>54671</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="3" t="s">
         <v>178</v>
       </c>
@@ -9373,8 +10069,12 @@
       <c r="M167" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="N167" s="7">
+        <f t="shared" si="2"/>
+        <v>49591</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="3" t="s">
         <v>179</v>
       </c>
@@ -9414,8 +10114,12 @@
       <c r="M168" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168" s="7">
+        <f t="shared" si="2"/>
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="3" t="s">
         <v>180</v>
       </c>
@@ -9455,8 +10159,12 @@
       <c r="M169" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N169" s="7">
+        <f t="shared" si="2"/>
+        <v>34977</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="3" t="s">
         <v>181</v>
       </c>
@@ -9496,8 +10204,12 @@
       <c r="M170" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170" s="7">
+        <f t="shared" si="2"/>
+        <v>24908</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="3" t="s">
         <v>182</v>
       </c>
@@ -9537,8 +10249,12 @@
       <c r="M171" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171" s="7">
+        <f t="shared" si="2"/>
+        <v>16297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="3" t="s">
         <v>183</v>
       </c>
@@ -9578,8 +10294,12 @@
       <c r="M172" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172" s="7">
+        <f t="shared" si="2"/>
+        <v>16025</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="3" t="s">
         <v>184</v>
       </c>
@@ -9619,8 +10339,12 @@
       <c r="M173" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173" s="7">
+        <f t="shared" si="2"/>
+        <v>20985</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="3" t="s">
         <v>185</v>
       </c>
@@ -9660,8 +10384,12 @@
       <c r="M174" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174" s="7">
+        <f t="shared" si="2"/>
+        <v>29825</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="3" t="s">
         <v>186</v>
       </c>
@@ -9701,8 +10429,12 @@
       <c r="M175" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175" s="7">
+        <f t="shared" si="2"/>
+        <v>36411</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="3" t="s">
         <v>187</v>
       </c>
@@ -9742,8 +10474,12 @@
       <c r="M176" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176" s="7">
+        <f t="shared" si="2"/>
+        <v>35934</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="3" t="s">
         <v>188</v>
       </c>
@@ -9783,8 +10519,12 @@
       <c r="M177" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177" s="7">
+        <f t="shared" si="2"/>
+        <v>42206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="3" t="s">
         <v>189</v>
       </c>
@@ -9824,8 +10564,12 @@
       <c r="M178" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178" s="7">
+        <f t="shared" si="2"/>
+        <v>46316</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="3" t="s">
         <v>190</v>
       </c>
@@ -9865,8 +10609,12 @@
       <c r="M179" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179" s="7">
+        <f t="shared" si="2"/>
+        <v>50127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="3" t="s">
         <v>191</v>
       </c>
@@ -9906,8 +10654,12 @@
       <c r="M180" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180" s="7">
+        <f t="shared" si="2"/>
+        <v>49017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="3" t="s">
         <v>192</v>
       </c>
@@ -9947,8 +10699,12 @@
       <c r="M181" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="N181" s="7">
+        <f t="shared" si="2"/>
+        <v>40552</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="3" t="s">
         <v>193</v>
       </c>
@@ -9988,8 +10744,12 @@
       <c r="M182" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="N182" s="7">
+        <f t="shared" si="2"/>
+        <v>36474</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="3" t="s">
         <v>194</v>
       </c>
@@ -10029,8 +10789,12 @@
       <c r="M183" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="N183" s="7">
+        <f t="shared" si="2"/>
+        <v>27608</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="3" t="s">
         <v>195</v>
       </c>
@@ -10070,8 +10834,12 @@
       <c r="M184" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="N184" s="7">
+        <f t="shared" si="2"/>
+        <v>23771</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="3" t="s">
         <v>196</v>
       </c>
@@ -10111,8 +10879,12 @@
       <c r="M185" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="N185" s="7">
+        <f t="shared" si="2"/>
+        <v>36423</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="3" t="s">
         <v>197</v>
       </c>
@@ -10152,8 +10924,12 @@
       <c r="M186" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="N186" s="7">
+        <f t="shared" si="2"/>
+        <v>41103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="3" t="s">
         <v>198</v>
       </c>
@@ -10193,8 +10969,12 @@
       <c r="M187" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="N187" s="7">
+        <f t="shared" si="2"/>
+        <v>37480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="3" t="s">
         <v>199</v>
       </c>
@@ -10234,8 +11014,12 @@
       <c r="M188" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="N188" s="7">
+        <f t="shared" si="2"/>
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="3" t="s">
         <v>200</v>
       </c>
@@ -10275,8 +11059,12 @@
       <c r="M189" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="N189" s="7">
+        <f t="shared" si="2"/>
+        <v>48362</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="3" t="s">
         <v>201</v>
       </c>
@@ -10316,8 +11104,12 @@
       <c r="M190" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="N190" s="7">
+        <f t="shared" si="2"/>
+        <v>54676</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="3" t="s">
         <v>202</v>
       </c>
@@ -10357,8 +11149,12 @@
       <c r="M191" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="N191" s="7">
+        <f t="shared" si="2"/>
+        <v>60876</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="3" t="s">
         <v>203</v>
       </c>
@@ -10398,8 +11194,12 @@
       <c r="M192" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="N192" s="7">
+        <f t="shared" si="2"/>
+        <v>52659</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="3" t="s">
         <v>204</v>
       </c>
@@ -10439,8 +11239,12 @@
       <c r="M193" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="N193" s="7">
+        <f t="shared" si="2"/>
+        <v>50198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="3" t="s">
         <v>205</v>
       </c>
@@ -10480,8 +11284,12 @@
       <c r="M194" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="N194" s="7">
+        <f t="shared" si="2"/>
+        <v>40054</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="3" t="s">
         <v>206</v>
       </c>
@@ -10521,8 +11329,12 @@
       <c r="M195" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195" s="7">
+        <f t="shared" ref="N195:N258" si="3">SUM(B195:M195)</f>
+        <v>30188</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="3" t="s">
         <v>207</v>
       </c>
@@ -10562,8 +11374,12 @@
       <c r="M196" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196" s="7">
+        <f t="shared" si="3"/>
+        <v>24783</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="3" t="s">
         <v>208</v>
       </c>
@@ -10603,8 +11419,12 @@
       <c r="M197" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="N197" s="7">
+        <f t="shared" si="3"/>
+        <v>34161</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="3" t="s">
         <v>209</v>
       </c>
@@ -10644,8 +11464,12 @@
       <c r="M198" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198" s="7">
+        <f t="shared" si="3"/>
+        <v>37749</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="3" t="s">
         <v>210</v>
       </c>
@@ -10685,8 +11509,12 @@
       <c r="M199" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199" s="7">
+        <f t="shared" si="3"/>
+        <v>37779</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="3" t="s">
         <v>211</v>
       </c>
@@ -10726,8 +11554,12 @@
       <c r="M200" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200" s="7">
+        <f t="shared" si="3"/>
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="3" t="s">
         <v>212</v>
       </c>
@@ -10767,8 +11599,12 @@
       <c r="M201" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201" s="7">
+        <f t="shared" si="3"/>
+        <v>40758</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="3" t="s">
         <v>213</v>
       </c>
@@ -10808,8 +11644,12 @@
       <c r="M202" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="N202" s="7">
+        <f t="shared" si="3"/>
+        <v>49512</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="3" t="s">
         <v>214</v>
       </c>
@@ -10849,8 +11689,12 @@
       <c r="M203" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="N203" s="7">
+        <f t="shared" si="3"/>
+        <v>54335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" s="3" t="s">
         <v>215</v>
       </c>
@@ -10890,8 +11734,12 @@
       <c r="M204" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204" s="7">
+        <f t="shared" si="3"/>
+        <v>46993</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="3" t="s">
         <v>216</v>
       </c>
@@ -10931,8 +11779,12 @@
       <c r="M205" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205" s="7">
+        <f t="shared" si="3"/>
+        <v>48799</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="3" t="s">
         <v>217</v>
       </c>
@@ -10972,8 +11824,12 @@
       <c r="M206" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206" s="7">
+        <f t="shared" si="3"/>
+        <v>38212</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="3" t="s">
         <v>218</v>
       </c>
@@ -11013,8 +11869,12 @@
       <c r="M207" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207" s="7">
+        <f t="shared" si="3"/>
+        <v>27344</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="3" t="s">
         <v>219</v>
       </c>
@@ -11054,8 +11914,12 @@
       <c r="M208" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="N208" s="7">
+        <f t="shared" si="3"/>
+        <v>24810</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="3" t="s">
         <v>220</v>
       </c>
@@ -11095,8 +11959,12 @@
       <c r="M209" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="N209" s="7">
+        <f t="shared" si="3"/>
+        <v>36184</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="3" t="s">
         <v>221</v>
       </c>
@@ -11136,8 +12004,12 @@
       <c r="M210" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="N210" s="7">
+        <f t="shared" si="3"/>
+        <v>38264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="3" t="s">
         <v>222</v>
       </c>
@@ -11177,8 +12049,12 @@
       <c r="M211" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="N211" s="7">
+        <f t="shared" si="3"/>
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="3" t="s">
         <v>223</v>
       </c>
@@ -11218,8 +12094,12 @@
       <c r="M212" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="N212" s="7">
+        <f t="shared" si="3"/>
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="3" t="s">
         <v>224</v>
       </c>
@@ -11259,8 +12139,12 @@
       <c r="M213" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="N213" s="7">
+        <f t="shared" si="3"/>
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="3" t="s">
         <v>225</v>
       </c>
@@ -11300,8 +12184,12 @@
       <c r="M214" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="N214" s="7">
+        <f t="shared" si="3"/>
+        <v>50487</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="3" t="s">
         <v>226</v>
       </c>
@@ -11341,8 +12229,12 @@
       <c r="M215" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="N215" s="7">
+        <f t="shared" si="3"/>
+        <v>51471</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="3" t="s">
         <v>227</v>
       </c>
@@ -11382,8 +12274,12 @@
       <c r="M216" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="N216" s="7">
+        <f t="shared" si="3"/>
+        <v>49094</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="3" t="s">
         <v>228</v>
       </c>
@@ -11423,8 +12319,12 @@
       <c r="M217" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="N217" s="7">
+        <f t="shared" si="3"/>
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="3" t="s">
         <v>229</v>
       </c>
@@ -11464,8 +12364,12 @@
       <c r="M218" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="N218" s="7">
+        <f t="shared" si="3"/>
+        <v>35061</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="3" t="s">
         <v>230</v>
       </c>
@@ -11505,8 +12409,12 @@
       <c r="M219" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="N219" s="7">
+        <f t="shared" si="3"/>
+        <v>23468</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="3" t="s">
         <v>231</v>
       </c>
@@ -11546,8 +12454,12 @@
       <c r="M220" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="N220" s="7">
+        <f t="shared" si="3"/>
+        <v>23955</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="3" t="s">
         <v>232</v>
       </c>
@@ -11587,8 +12499,12 @@
       <c r="M221" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="N221" s="7">
+        <f t="shared" si="3"/>
+        <v>33294</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="3" t="s">
         <v>233</v>
       </c>
@@ -11628,8 +12544,12 @@
       <c r="M222" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="N222" s="7">
+        <f t="shared" si="3"/>
+        <v>35112</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="3" t="s">
         <v>234</v>
       </c>
@@ -11669,8 +12589,12 @@
       <c r="M223" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="N223" s="7">
+        <f t="shared" si="3"/>
+        <v>36896</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="3" t="s">
         <v>235</v>
       </c>
@@ -11710,8 +12634,12 @@
       <c r="M224" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224" s="7">
+        <f t="shared" si="3"/>
+        <v>38464</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="3" t="s">
         <v>236</v>
       </c>
@@ -11751,8 +12679,12 @@
       <c r="M225" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="N225" s="7">
+        <f t="shared" si="3"/>
+        <v>40218</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="3" t="s">
         <v>237</v>
       </c>
@@ -11792,8 +12724,12 @@
       <c r="M226" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226" s="7">
+        <f t="shared" si="3"/>
+        <v>47057</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="3" t="s">
         <v>238</v>
       </c>
@@ -11833,8 +12769,12 @@
       <c r="M227" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227" s="7">
+        <f t="shared" si="3"/>
+        <v>48483</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="3" t="s">
         <v>239</v>
       </c>
@@ -11874,8 +12814,12 @@
       <c r="M228" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228" s="7">
+        <f t="shared" si="3"/>
+        <v>49149</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="3" t="s">
         <v>240</v>
       </c>
@@ -11915,8 +12859,12 @@
       <c r="M229" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="N229" s="7">
+        <f t="shared" si="3"/>
+        <v>49191</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="3" t="s">
         <v>241</v>
       </c>
@@ -11956,8 +12904,12 @@
       <c r="M230" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230" s="7">
+        <f t="shared" si="3"/>
+        <v>34368</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="3" t="s">
         <v>242</v>
       </c>
@@ -11997,8 +12949,12 @@
       <c r="M231" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231" s="7">
+        <f t="shared" si="3"/>
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="3" t="s">
         <v>243</v>
       </c>
@@ -12038,8 +12994,12 @@
       <c r="M232" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="N232" s="7">
+        <f t="shared" si="3"/>
+        <v>24165</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" s="3" t="s">
         <v>244</v>
       </c>
@@ -12079,8 +13039,12 @@
       <c r="M233" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="N233" s="7">
+        <f t="shared" si="3"/>
+        <v>31012</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" s="3" t="s">
         <v>245</v>
       </c>
@@ -12120,8 +13084,12 @@
       <c r="M234" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="N234" s="7">
+        <f t="shared" si="3"/>
+        <v>38439</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" s="3" t="s">
         <v>246</v>
       </c>
@@ -12161,8 +13129,12 @@
       <c r="M235" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="N235" s="7">
+        <f t="shared" si="3"/>
+        <v>37736</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" s="3" t="s">
         <v>247</v>
       </c>
@@ -12202,8 +13174,12 @@
       <c r="M236" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="N236" s="7">
+        <f t="shared" si="3"/>
+        <v>36597</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" s="3" t="s">
         <v>248</v>
       </c>
@@ -12243,8 +13219,12 @@
       <c r="M237" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="N237" s="7">
+        <f t="shared" si="3"/>
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" s="3" t="s">
         <v>249</v>
       </c>
@@ -12284,8 +13264,12 @@
       <c r="M238" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="N238" s="7">
+        <f t="shared" si="3"/>
+        <v>42541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" s="3" t="s">
         <v>250</v>
       </c>
@@ -12325,8 +13309,12 @@
       <c r="M239" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="N239" s="7">
+        <f t="shared" si="3"/>
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" s="3" t="s">
         <v>251</v>
       </c>
@@ -12366,8 +13354,12 @@
       <c r="M240" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="N240" s="7">
+        <f t="shared" si="3"/>
+        <v>40699</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" s="3" t="s">
         <v>252</v>
       </c>
@@ -12407,8 +13399,12 @@
       <c r="M241" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="N241" s="7">
+        <f t="shared" si="3"/>
+        <v>38010</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" s="3" t="s">
         <v>253</v>
       </c>
@@ -12448,8 +13444,12 @@
       <c r="M242" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="N242" s="7">
+        <f t="shared" si="3"/>
+        <v>32411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" s="3" t="s">
         <v>254</v>
       </c>
@@ -12489,8 +13489,12 @@
       <c r="M243" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="N243" s="7">
+        <f t="shared" si="3"/>
+        <v>25291</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" s="3" t="s">
         <v>255</v>
       </c>
@@ -12530,8 +13534,12 @@
       <c r="M244" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="N244" s="7">
+        <f t="shared" si="3"/>
+        <v>21611</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" s="3" t="s">
         <v>256</v>
       </c>
@@ -12571,8 +13579,12 @@
       <c r="M245" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="N245" s="7">
+        <f t="shared" si="3"/>
+        <v>29218</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" s="3" t="s">
         <v>257</v>
       </c>
@@ -12612,8 +13624,12 @@
       <c r="M246" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="N246" s="7">
+        <f t="shared" si="3"/>
+        <v>34181</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" s="3" t="s">
         <v>258</v>
       </c>
@@ -12653,8 +13669,12 @@
       <c r="M247" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="N247" s="7">
+        <f t="shared" si="3"/>
+        <v>32371</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" s="3" t="s">
         <v>259</v>
       </c>
@@ -12694,8 +13714,12 @@
       <c r="M248" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="N248" s="7">
+        <f t="shared" si="3"/>
+        <v>32960</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" s="3" t="s">
         <v>260</v>
       </c>
@@ -12735,8 +13759,12 @@
       <c r="M249" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="N249" s="7">
+        <f t="shared" si="3"/>
+        <v>34786</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" s="3" t="s">
         <v>261</v>
       </c>
@@ -12776,8 +13804,12 @@
       <c r="M250" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="N250" s="7">
+        <f t="shared" si="3"/>
+        <v>36251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" s="3" t="s">
         <v>262</v>
       </c>
@@ -12817,8 +13849,12 @@
       <c r="M251" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="N251" s="7">
+        <f t="shared" si="3"/>
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" s="3" t="s">
         <v>263</v>
       </c>
@@ -12858,8 +13894,12 @@
       <c r="M252" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="N252" s="7">
+        <f t="shared" si="3"/>
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" s="3" t="s">
         <v>264</v>
       </c>
@@ -12899,8 +13939,12 @@
       <c r="M253" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="N253" s="7">
+        <f t="shared" si="3"/>
+        <v>41231</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" s="3" t="s">
         <v>265</v>
       </c>
@@ -12940,8 +13984,12 @@
       <c r="M254" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="N254" s="7">
+        <f t="shared" si="3"/>
+        <v>36830</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" s="3" t="s">
         <v>266</v>
       </c>
@@ -12981,8 +14029,12 @@
       <c r="M255" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="N255" s="7">
+        <f t="shared" si="3"/>
+        <v>27872</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" s="3" t="s">
         <v>267</v>
       </c>
@@ -13022,8 +14074,12 @@
       <c r="M256" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="N256" s="7">
+        <f t="shared" si="3"/>
+        <v>24545</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" s="3" t="s">
         <v>268</v>
       </c>
@@ -13063,8 +14119,12 @@
       <c r="M257" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="N257" s="7">
+        <f t="shared" si="3"/>
+        <v>31220</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" s="3" t="s">
         <v>269</v>
       </c>
@@ -13104,8 +14164,12 @@
       <c r="M258" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="N258" s="7">
+        <f t="shared" si="3"/>
+        <v>31124</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" s="3" t="s">
         <v>270</v>
       </c>
@@ -13145,8 +14209,12 @@
       <c r="M259" s="4">
         <v>42</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="N259" s="7">
+        <f t="shared" ref="N259:N322" si="4">SUM(B259:M259)</f>
+        <v>28815</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" s="3" t="s">
         <v>271</v>
       </c>
@@ -13186,8 +14254,12 @@
       <c r="M260" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="N260" s="7">
+        <f t="shared" si="4"/>
+        <v>33890</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" s="3" t="s">
         <v>272</v>
       </c>
@@ -13227,8 +14299,12 @@
       <c r="M261" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="N261" s="7">
+        <f t="shared" si="4"/>
+        <v>33480</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" s="3" t="s">
         <v>273</v>
       </c>
@@ -13268,8 +14344,12 @@
       <c r="M262" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="N262" s="7">
+        <f t="shared" si="4"/>
+        <v>37814</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" s="3" t="s">
         <v>274</v>
       </c>
@@ -13309,8 +14389,12 @@
       <c r="M263" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="N263" s="7">
+        <f t="shared" si="4"/>
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" s="3" t="s">
         <v>275</v>
       </c>
@@ -13350,8 +14434,12 @@
       <c r="M264" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="N264" s="7">
+        <f t="shared" si="4"/>
+        <v>36159</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" s="3" t="s">
         <v>276</v>
       </c>
@@ -13391,8 +14479,12 @@
       <c r="M265" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="N265" s="7">
+        <f t="shared" si="4"/>
+        <v>34613</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" s="3" t="s">
         <v>277</v>
       </c>
@@ -13432,8 +14524,12 @@
       <c r="M266" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="N266" s="7">
+        <f t="shared" si="4"/>
+        <v>27136</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" s="3" t="s">
         <v>278</v>
       </c>
@@ -13473,8 +14569,12 @@
       <c r="M267" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="N267" s="7">
+        <f t="shared" si="4"/>
+        <v>19097</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" s="3" t="s">
         <v>279</v>
       </c>
@@ -13514,8 +14614,12 @@
       <c r="M268" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="N268" s="7">
+        <f t="shared" si="4"/>
+        <v>16958</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" s="3" t="s">
         <v>280</v>
       </c>
@@ -13555,8 +14659,12 @@
       <c r="M269" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="N269" s="7">
+        <f t="shared" si="4"/>
+        <v>25457</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" s="3" t="s">
         <v>281</v>
       </c>
@@ -13596,8 +14704,12 @@
       <c r="M270" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="N270" s="7">
+        <f t="shared" si="4"/>
+        <v>26545</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" s="3" t="s">
         <v>282</v>
       </c>
@@ -13637,8 +14749,12 @@
       <c r="M271" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="N271" s="7">
+        <f t="shared" si="4"/>
+        <v>27111</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" s="3" t="s">
         <v>283</v>
       </c>
@@ -13678,8 +14794,12 @@
       <c r="M272" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="N272" s="7">
+        <f t="shared" si="4"/>
+        <v>29039</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" s="3" t="s">
         <v>284</v>
       </c>
@@ -13719,8 +14839,12 @@
       <c r="M273" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="N273" s="7">
+        <f t="shared" si="4"/>
+        <v>27791</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" s="3" t="s">
         <v>285</v>
       </c>
@@ -13760,8 +14884,12 @@
       <c r="M274" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="N274" s="7">
+        <f t="shared" si="4"/>
+        <v>32610</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" s="3" t="s">
         <v>286</v>
       </c>
@@ -13801,8 +14929,12 @@
       <c r="M275" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="N275" s="7">
+        <f t="shared" si="4"/>
+        <v>36730</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="3" t="s">
         <v>287</v>
       </c>
@@ -13842,8 +14974,12 @@
       <c r="M276" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="N276" s="7">
+        <f t="shared" si="4"/>
+        <v>32021</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" s="3" t="s">
         <v>288</v>
       </c>
@@ -13883,8 +15019,12 @@
       <c r="M277" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="N277" s="7">
+        <f t="shared" si="4"/>
+        <v>35256</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" s="3" t="s">
         <v>289</v>
       </c>
@@ -13924,8 +15064,12 @@
       <c r="M278" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="N278" s="7">
+        <f t="shared" si="4"/>
+        <v>26154</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" s="3" t="s">
         <v>290</v>
       </c>
@@ -13965,8 +15109,12 @@
       <c r="M279" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="N279" s="7">
+        <f t="shared" si="4"/>
+        <v>16796</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" s="3" t="s">
         <v>291</v>
       </c>
@@ -14006,8 +15154,12 @@
       <c r="M280" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="N280" s="7">
+        <f t="shared" si="4"/>
+        <v>17606</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" s="3" t="s">
         <v>292</v>
       </c>
@@ -14047,8 +15199,12 @@
       <c r="M281" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="N281" s="7">
+        <f t="shared" si="4"/>
+        <v>24673</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" s="3" t="s">
         <v>293</v>
       </c>
@@ -14088,8 +15244,12 @@
       <c r="M282" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="N282" s="7">
+        <f t="shared" si="4"/>
+        <v>25277</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" s="3" t="s">
         <v>294</v>
       </c>
@@ -14129,8 +15289,12 @@
       <c r="M283" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="284" spans="1:13">
+      <c r="N283" s="7">
+        <f t="shared" si="4"/>
+        <v>27731</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" s="3" t="s">
         <v>295</v>
       </c>
@@ -14170,8 +15334,12 @@
       <c r="M284" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="N284" s="7">
+        <f t="shared" si="4"/>
+        <v>28859</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" s="3" t="s">
         <v>296</v>
       </c>
@@ -14211,8 +15379,12 @@
       <c r="M285" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="N285" s="7">
+        <f t="shared" si="4"/>
+        <v>30326</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" s="3" t="s">
         <v>297</v>
       </c>
@@ -14252,8 +15424,12 @@
       <c r="M286" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="N286" s="7">
+        <f t="shared" si="4"/>
+        <v>35565</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" s="3" t="s">
         <v>298</v>
       </c>
@@ -14293,8 +15469,12 @@
       <c r="M287" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="N287" s="7">
+        <f t="shared" si="4"/>
+        <v>35835</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" s="3" t="s">
         <v>299</v>
       </c>
@@ -14334,8 +15514,12 @@
       <c r="M288" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="N288" s="7">
+        <f t="shared" si="4"/>
+        <v>35467</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" s="3" t="s">
         <v>300</v>
       </c>
@@ -14375,8 +15559,12 @@
       <c r="M289" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="N289" s="7">
+        <f t="shared" si="4"/>
+        <v>33836</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" s="3" t="s">
         <v>301</v>
       </c>
@@ -14416,8 +15604,12 @@
       <c r="M290" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="N290" s="7">
+        <f t="shared" si="4"/>
+        <v>24722</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" s="3" t="s">
         <v>302</v>
       </c>
@@ -14457,8 +15649,12 @@
       <c r="M291" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="N291" s="7">
+        <f t="shared" si="4"/>
+        <v>15403</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" s="3" t="s">
         <v>303</v>
       </c>
@@ -14498,8 +15694,12 @@
       <c r="M292" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="N292" s="7">
+        <f t="shared" si="4"/>
+        <v>18163</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" s="3" t="s">
         <v>304</v>
       </c>
@@ -14539,8 +15739,12 @@
       <c r="M293" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="N293" s="7">
+        <f t="shared" si="4"/>
+        <v>22441</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" s="3" t="s">
         <v>305</v>
       </c>
@@ -14580,8 +15784,12 @@
       <c r="M294" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="N294" s="7">
+        <f t="shared" si="4"/>
+        <v>24401</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" s="3" t="s">
         <v>306</v>
       </c>
@@ -14621,8 +15829,12 @@
       <c r="M295" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="N295" s="7">
+        <f t="shared" si="4"/>
+        <v>26562</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" s="3" t="s">
         <v>307</v>
       </c>
@@ -14662,8 +15874,12 @@
       <c r="M296" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="N296" s="7">
+        <f t="shared" si="4"/>
+        <v>26033</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" s="3" t="s">
         <v>308</v>
       </c>
@@ -14703,8 +15919,12 @@
       <c r="M297" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="N297" s="7">
+        <f t="shared" si="4"/>
+        <v>29479</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" s="3" t="s">
         <v>309</v>
       </c>
@@ -14744,8 +15964,12 @@
       <c r="M298" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="299" spans="1:13">
+      <c r="N298" s="7">
+        <f t="shared" si="4"/>
+        <v>32425</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" s="3" t="s">
         <v>310</v>
       </c>
@@ -14785,8 +16009,12 @@
       <c r="M299" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="300" spans="1:13">
+      <c r="N299" s="7">
+        <f t="shared" si="4"/>
+        <v>33272</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" s="3" t="s">
         <v>311</v>
       </c>
@@ -14826,8 +16054,12 @@
       <c r="M300" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="301" spans="1:13">
+      <c r="N300" s="7">
+        <f t="shared" si="4"/>
+        <v>32490</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" s="3" t="s">
         <v>312</v>
       </c>
@@ -14867,8 +16099,12 @@
       <c r="M301" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="302" spans="1:13">
+      <c r="N301" s="7">
+        <f t="shared" si="4"/>
+        <v>29733</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302" s="3" t="s">
         <v>313</v>
       </c>
@@ -14908,8 +16144,12 @@
       <c r="M302" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="303" spans="1:13">
+      <c r="N302" s="7">
+        <f t="shared" si="4"/>
+        <v>23443</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
       <c r="A303" s="3" t="s">
         <v>314</v>
       </c>
@@ -14949,8 +16189,12 @@
       <c r="M303" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:13">
+      <c r="N303" s="7">
+        <f t="shared" si="4"/>
+        <v>16030</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
       <c r="A304" s="3" t="s">
         <v>315</v>
       </c>
@@ -14990,8 +16234,12 @@
       <c r="M304" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="305" spans="1:13">
+      <c r="N304" s="7">
+        <f t="shared" si="4"/>
+        <v>18498</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
       <c r="A305" s="3" t="s">
         <v>316</v>
       </c>
@@ -15031,8 +16279,12 @@
       <c r="M305" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="306" spans="1:13">
+      <c r="N305" s="7">
+        <f t="shared" si="4"/>
+        <v>22544</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" s="3" t="s">
         <v>317</v>
       </c>
@@ -15072,8 +16324,12 @@
       <c r="M306" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="307" spans="1:13">
+      <c r="N306" s="7">
+        <f t="shared" si="4"/>
+        <v>27685</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
       <c r="A307" s="3" t="s">
         <v>318</v>
       </c>
@@ -15113,8 +16369,12 @@
       <c r="M307" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="308" spans="1:13">
+      <c r="N307" s="7">
+        <f t="shared" si="4"/>
+        <v>26459</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308" s="3" t="s">
         <v>319</v>
       </c>
@@ -15154,8 +16414,12 @@
       <c r="M308" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="309" spans="1:13">
+      <c r="N308" s="7">
+        <f t="shared" si="4"/>
+        <v>26304</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
       <c r="A309" s="3" t="s">
         <v>320</v>
       </c>
@@ -15195,8 +16459,12 @@
       <c r="M309" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="310" spans="1:13">
+      <c r="N309" s="7">
+        <f t="shared" si="4"/>
+        <v>29512</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310" s="3" t="s">
         <v>321</v>
       </c>
@@ -15236,8 +16504,12 @@
       <c r="M310" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="311" spans="1:13">
+      <c r="N310" s="7">
+        <f t="shared" si="4"/>
+        <v>30168</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
       <c r="A311" s="3" t="s">
         <v>322</v>
       </c>
@@ -15277,8 +16549,12 @@
       <c r="M311" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="312" spans="1:13">
+      <c r="N311" s="7">
+        <f t="shared" si="4"/>
+        <v>33360</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312" s="3" t="s">
         <v>323</v>
       </c>
@@ -15318,8 +16594,12 @@
       <c r="M312" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="313" spans="1:13">
+      <c r="N312" s="7">
+        <f t="shared" si="4"/>
+        <v>35704</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
       <c r="A313" s="3" t="s">
         <v>324</v>
       </c>
@@ -15359,8 +16639,12 @@
       <c r="M313" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="314" spans="1:13">
+      <c r="N313" s="7">
+        <f t="shared" si="4"/>
+        <v>30067</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
       <c r="A314" s="3" t="s">
         <v>325</v>
       </c>
@@ -15400,8 +16684,12 @@
       <c r="M314" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:13">
+      <c r="N314" s="7">
+        <f t="shared" si="4"/>
+        <v>28202</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
       <c r="A315" s="3" t="s">
         <v>326</v>
       </c>
@@ -15441,8 +16729,12 @@
       <c r="M315" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:13">
+      <c r="N315" s="7">
+        <f t="shared" si="4"/>
+        <v>22277</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
       <c r="A316" s="3" t="s">
         <v>327</v>
       </c>
@@ -15482,8 +16774,12 @@
       <c r="M316" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="317" spans="1:13">
+      <c r="N316" s="7">
+        <f t="shared" si="4"/>
+        <v>23434</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
       <c r="A317" s="3" t="s">
         <v>328</v>
       </c>
@@ -15523,8 +16819,12 @@
       <c r="M317" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="318" spans="1:13">
+      <c r="N317" s="7">
+        <f t="shared" si="4"/>
+        <v>30233</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
       <c r="A318" s="3" t="s">
         <v>329</v>
       </c>
@@ -15564,8 +16864,12 @@
       <c r="M318" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="319" spans="1:13">
+      <c r="N318" s="7">
+        <f t="shared" si="4"/>
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
       <c r="A319" s="3" t="s">
         <v>330</v>
       </c>
@@ -15605,8 +16909,12 @@
       <c r="M319" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="320" spans="1:13">
+      <c r="N319" s="7">
+        <f t="shared" si="4"/>
+        <v>25354</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
       <c r="A320" s="3" t="s">
         <v>331</v>
       </c>
@@ -15646,8 +16954,12 @@
       <c r="M320" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="321" spans="1:13">
+      <c r="N320" s="7">
+        <f t="shared" si="4"/>
+        <v>25540</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
       <c r="A321" s="3" t="s">
         <v>332</v>
       </c>
@@ -15687,8 +16999,12 @@
       <c r="M321" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="322" spans="1:13">
+      <c r="N321" s="7">
+        <f t="shared" si="4"/>
+        <v>27251</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
       <c r="A322" s="3" t="s">
         <v>333</v>
       </c>
@@ -15728,8 +17044,12 @@
       <c r="M322" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="323" spans="1:13">
+      <c r="N322" s="7">
+        <f t="shared" si="4"/>
+        <v>27889</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
       <c r="A323" s="3" t="s">
         <v>334</v>
       </c>
@@ -15769,8 +17089,12 @@
       <c r="M323" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="324" spans="1:13">
+      <c r="N323" s="7">
+        <f t="shared" ref="N323:N386" si="5">SUM(B323:M323)</f>
+        <v>32499</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
       <c r="A324" s="3" t="s">
         <v>335</v>
       </c>
@@ -15810,8 +17134,12 @@
       <c r="M324" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="325" spans="1:13">
+      <c r="N324" s="7">
+        <f t="shared" si="5"/>
+        <v>31695</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
       <c r="A325" s="3" t="s">
         <v>336</v>
       </c>
@@ -15851,8 +17179,12 @@
       <c r="M325" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="326" spans="1:13">
+      <c r="N325" s="7">
+        <f t="shared" si="5"/>
+        <v>30914</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
       <c r="A326" s="3" t="s">
         <v>337</v>
       </c>
@@ -15892,8 +17224,12 @@
       <c r="M326" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="327" spans="1:13">
+      <c r="N326" s="7">
+        <f t="shared" si="5"/>
+        <v>24653</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
       <c r="A327" s="3" t="s">
         <v>338</v>
       </c>
@@ -15933,8 +17269,12 @@
       <c r="M327" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="328" spans="1:13">
+      <c r="N327" s="7">
+        <f t="shared" si="5"/>
+        <v>15756</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
       <c r="A328" s="3" t="s">
         <v>339</v>
       </c>
@@ -15974,8 +17314,12 @@
       <c r="M328" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:13">
+      <c r="N328" s="7">
+        <f t="shared" si="5"/>
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
       <c r="A329" s="3" t="s">
         <v>340</v>
       </c>
@@ -16015,8 +17359,12 @@
       <c r="M329" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="330" spans="1:13">
+      <c r="N329" s="7">
+        <f t="shared" si="5"/>
+        <v>20471</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
       <c r="A330" s="3" t="s">
         <v>341</v>
       </c>
@@ -16056,8 +17404,12 @@
       <c r="M330" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="331" spans="1:13">
+      <c r="N330" s="7">
+        <f t="shared" si="5"/>
+        <v>22003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
       <c r="A331" s="3" t="s">
         <v>342</v>
       </c>
@@ -16097,8 +17449,12 @@
       <c r="M331" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="332" spans="1:13">
+      <c r="N331" s="7">
+        <f t="shared" si="5"/>
+        <v>23512</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
       <c r="A332" s="3" t="s">
         <v>343</v>
       </c>
@@ -16138,8 +17494,12 @@
       <c r="M332" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="333" spans="1:13">
+      <c r="N332" s="7">
+        <f t="shared" si="5"/>
+        <v>27552</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
       <c r="A333" s="3" t="s">
         <v>344</v>
       </c>
@@ -16179,8 +17539,12 @@
       <c r="M333" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="334" spans="1:13">
+      <c r="N333" s="7">
+        <f t="shared" si="5"/>
+        <v>24845</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
       <c r="A334" s="3" t="s">
         <v>345</v>
       </c>
@@ -16220,8 +17584,12 @@
       <c r="M334" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="335" spans="1:13">
+      <c r="N334" s="7">
+        <f t="shared" si="5"/>
+        <v>27089</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
       <c r="A335" s="3" t="s">
         <v>346</v>
       </c>
@@ -16261,8 +17629,12 @@
       <c r="M335" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="336" spans="1:13">
+      <c r="N335" s="7">
+        <f t="shared" si="5"/>
+        <v>26986</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
       <c r="A336" s="3" t="s">
         <v>347</v>
       </c>
@@ -16302,8 +17674,12 @@
       <c r="M336" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="337" spans="1:13">
+      <c r="N336" s="7">
+        <f t="shared" si="5"/>
+        <v>21439</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14">
       <c r="A337" s="3" t="s">
         <v>348</v>
       </c>
@@ -16343,8 +17719,12 @@
       <c r="M337" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="338" spans="1:13">
+      <c r="N337" s="7">
+        <f t="shared" si="5"/>
+        <v>22231</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
       <c r="A338" s="3" t="s">
         <v>349</v>
       </c>
@@ -16384,8 +17764,12 @@
       <c r="M338" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="339" spans="1:13">
+      <c r="N338" s="7">
+        <f t="shared" si="5"/>
+        <v>16907</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14">
       <c r="A339" s="3" t="s">
         <v>350</v>
       </c>
@@ -16425,8 +17809,12 @@
       <c r="M339" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="340" spans="1:13">
+      <c r="N339" s="7">
+        <f t="shared" si="5"/>
+        <v>13609</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14">
       <c r="A340" s="3" t="s">
         <v>351</v>
       </c>
@@ -16466,8 +17854,12 @@
       <c r="M340" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="341" spans="1:13">
+      <c r="N340" s="7">
+        <f t="shared" si="5"/>
+        <v>14745</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14">
       <c r="A341" s="3" t="s">
         <v>352</v>
       </c>
@@ -16507,8 +17899,12 @@
       <c r="M341" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="342" spans="1:13">
+      <c r="N341" s="7">
+        <f t="shared" si="5"/>
+        <v>20506</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14">
       <c r="A342" s="3" t="s">
         <v>353</v>
       </c>
@@ -16548,8 +17944,12 @@
       <c r="M342" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="343" spans="1:13">
+      <c r="N342" s="7">
+        <f t="shared" si="5"/>
+        <v>20861</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
       <c r="A343" s="3" t="s">
         <v>354</v>
       </c>
@@ -16589,8 +17989,12 @@
       <c r="M343" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="344" spans="1:13">
+      <c r="N343" s="7">
+        <f t="shared" si="5"/>
+        <v>21543</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
       <c r="A344" s="3" t="s">
         <v>355</v>
       </c>
@@ -16630,8 +18034,12 @@
       <c r="M344" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="345" spans="1:13">
+      <c r="N344" s="7">
+        <f t="shared" si="5"/>
+        <v>22738</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
       <c r="A345" s="3" t="s">
         <v>356</v>
       </c>
@@ -16671,8 +18079,12 @@
       <c r="M345" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="346" spans="1:13">
+      <c r="N345" s="7">
+        <f t="shared" si="5"/>
+        <v>22012</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
       <c r="A346" s="3" t="s">
         <v>357</v>
       </c>
@@ -16712,8 +18124,12 @@
       <c r="M346" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="347" spans="1:13">
+      <c r="N346" s="7">
+        <f t="shared" si="5"/>
+        <v>27118</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14">
       <c r="A347" s="3" t="s">
         <v>358</v>
       </c>
@@ -16753,8 +18169,12 @@
       <c r="M347" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="348" spans="1:13">
+      <c r="N347" s="7">
+        <f t="shared" si="5"/>
+        <v>30351</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
       <c r="A348" s="3" t="s">
         <v>359</v>
       </c>
@@ -16794,8 +18214,12 @@
       <c r="M348" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="349" spans="1:13">
+      <c r="N348" s="7">
+        <f t="shared" si="5"/>
+        <v>36116</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
       <c r="A349" s="3" t="s">
         <v>360</v>
       </c>
@@ -16835,8 +18259,12 @@
       <c r="M349" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="350" spans="1:13">
+      <c r="N349" s="7">
+        <f t="shared" si="5"/>
+        <v>37586</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
       <c r="A350" s="3" t="s">
         <v>361</v>
       </c>
@@ -16876,8 +18304,12 @@
       <c r="M350" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="351" spans="1:13">
+      <c r="N350" s="7">
+        <f t="shared" si="5"/>
+        <v>27178</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
       <c r="A351" s="3" t="s">
         <v>362</v>
       </c>
@@ -16917,8 +18349,12 @@
       <c r="M351" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="352" spans="1:13">
+      <c r="N351" s="7">
+        <f t="shared" si="5"/>
+        <v>16778</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
       <c r="A352" s="3" t="s">
         <v>363</v>
       </c>
@@ -16958,8 +18394,12 @@
       <c r="M352" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="353" spans="1:13">
+      <c r="N352" s="7">
+        <f t="shared" si="5"/>
+        <v>18578</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
       <c r="A353" s="3" t="s">
         <v>364</v>
       </c>
@@ -16999,8 +18439,12 @@
       <c r="M353" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="354" spans="1:13">
+      <c r="N353" s="7">
+        <f t="shared" si="5"/>
+        <v>23030</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
       <c r="A354" s="3" t="s">
         <v>365</v>
       </c>
@@ -17040,8 +18484,12 @@
       <c r="M354" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="355" spans="1:13">
+      <c r="N354" s="7">
+        <f t="shared" si="5"/>
+        <v>22528</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
       <c r="A355" s="3" t="s">
         <v>366</v>
       </c>
@@ -17081,8 +18529,12 @@
       <c r="M355" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="356" spans="1:13">
+      <c r="N355" s="7">
+        <f t="shared" si="5"/>
+        <v>25278</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
       <c r="A356" s="3" t="s">
         <v>367</v>
       </c>
@@ -17122,8 +18574,12 @@
       <c r="M356" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="357" spans="1:13">
+      <c r="N356" s="7">
+        <f t="shared" si="5"/>
+        <v>25522</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
       <c r="A357" s="3" t="s">
         <v>368</v>
       </c>
@@ -17163,8 +18619,12 @@
       <c r="M357" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="358" spans="1:13">
+      <c r="N357" s="7">
+        <f t="shared" si="5"/>
+        <v>26044</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
       <c r="A358" s="3" t="s">
         <v>369</v>
       </c>
@@ -17204,8 +18664,12 @@
       <c r="M358" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="359" spans="1:13">
+      <c r="N358" s="7">
+        <f t="shared" si="5"/>
+        <v>29380</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
       <c r="A359" s="3" t="s">
         <v>370</v>
       </c>
@@ -17245,8 +18709,12 @@
       <c r="M359" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="360" spans="1:13">
+      <c r="N359" s="7">
+        <f t="shared" si="5"/>
+        <v>30370</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
       <c r="A360" s="3" t="s">
         <v>371</v>
       </c>
@@ -17286,8 +18754,12 @@
       <c r="M360" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="361" spans="1:13">
+      <c r="N360" s="7">
+        <f t="shared" si="5"/>
+        <v>31358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
       <c r="A361" s="3" t="s">
         <v>372</v>
       </c>
@@ -17327,8 +18799,12 @@
       <c r="M361" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="362" spans="1:13">
+      <c r="N361" s="7">
+        <f t="shared" si="5"/>
+        <v>29466</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
       <c r="A362" s="3" t="s">
         <v>373</v>
       </c>
@@ -17368,8 +18844,12 @@
       <c r="M362" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="363" spans="1:13">
+      <c r="N362" s="7">
+        <f t="shared" si="5"/>
+        <v>22095</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
       <c r="A363" s="3" t="s">
         <v>374</v>
       </c>
@@ -17409,8 +18889,12 @@
       <c r="M363" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="364" spans="1:13">
+      <c r="N363" s="7">
+        <f t="shared" si="5"/>
+        <v>13926</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
       <c r="A364" s="3" t="s">
         <v>375</v>
       </c>
@@ -17448,8 +18932,12 @@
       <c r="M364" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="365" spans="1:13">
+      <c r="N364" s="7">
+        <f t="shared" si="5"/>
+        <v>16030</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
       <c r="A365" s="3" t="s">
         <v>376</v>
       </c>
@@ -17487,8 +18975,12 @@
       <c r="M365" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="366" spans="1:13">
+      <c r="N365" s="7">
+        <f t="shared" si="5"/>
+        <v>22254</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
       <c r="A366" s="3" t="s">
         <v>377</v>
       </c>
@@ -17526,8 +19018,12 @@
       <c r="M366" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="367" spans="1:13">
+      <c r="N366" s="7">
+        <f t="shared" si="5"/>
+        <v>28723</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
       <c r="A367" s="3" t="s">
         <v>378</v>
       </c>
@@ -17565,8 +19061,12 @@
       <c r="M367" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="368" spans="1:13">
+      <c r="N367" s="7">
+        <f t="shared" si="5"/>
+        <v>29884</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
       <c r="A368" s="3" t="s">
         <v>379</v>
       </c>
@@ -17604,8 +19104,12 @@
       <c r="M368" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="369" spans="1:13">
+      <c r="N368" s="7">
+        <f t="shared" si="5"/>
+        <v>26778</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
       <c r="A369" s="3" t="s">
         <v>380</v>
       </c>
@@ -17643,8 +19147,12 @@
       <c r="M369" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="370" spans="1:13">
+      <c r="N369" s="7">
+        <f t="shared" si="5"/>
+        <v>27665</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
       <c r="A370" s="3" t="s">
         <v>381</v>
       </c>
@@ -17682,8 +19190,12 @@
       <c r="M370" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="371" spans="1:13">
+      <c r="N370" s="7">
+        <f t="shared" si="5"/>
+        <v>28914</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
       <c r="A371" s="3" t="s">
         <v>382</v>
       </c>
@@ -17721,8 +19233,12 @@
       <c r="M371" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="372" spans="1:13">
+      <c r="N371" s="7">
+        <f t="shared" si="5"/>
+        <v>28589</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
       <c r="A372" s="3" t="s">
         <v>383</v>
       </c>
@@ -17760,8 +19276,12 @@
       <c r="M372" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="373" spans="1:13">
+      <c r="N372" s="7">
+        <f t="shared" si="5"/>
+        <v>31471</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
       <c r="A373" s="3" t="s">
         <v>384</v>
       </c>
@@ -17799,8 +19319,12 @@
       <c r="M373" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="374" spans="1:13">
+      <c r="N373" s="7">
+        <f t="shared" si="5"/>
+        <v>35889</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14">
       <c r="A374" s="3" t="s">
         <v>385</v>
       </c>
@@ -17838,8 +19362,12 @@
       <c r="M374" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="375" spans="1:13">
+      <c r="N374" s="7">
+        <f t="shared" si="5"/>
+        <v>27604</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14">
       <c r="A375" s="3" t="s">
         <v>386</v>
       </c>
@@ -17877,8 +19405,12 @@
       <c r="M375" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="376" spans="1:13">
+      <c r="N375" s="7">
+        <f t="shared" si="5"/>
+        <v>17426</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14">
       <c r="A376" s="3" t="s">
         <v>387</v>
       </c>
@@ -17916,8 +19448,12 @@
       <c r="M376" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="377" spans="1:13">
+      <c r="N376" s="7">
+        <f t="shared" si="5"/>
+        <v>16226</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
       <c r="A377" s="3" t="s">
         <v>388</v>
       </c>
@@ -17955,8 +19491,12 @@
       <c r="M377" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="378" spans="1:13">
+      <c r="N377" s="7">
+        <f t="shared" si="5"/>
+        <v>19321</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
       <c r="A378" s="3" t="s">
         <v>389</v>
       </c>
@@ -17994,8 +19534,12 @@
       <c r="M378" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="379" spans="1:13">
+      <c r="N378" s="7">
+        <f t="shared" si="5"/>
+        <v>21659</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
       <c r="A379" s="3" t="s">
         <v>390</v>
       </c>
@@ -18033,8 +19577,12 @@
       <c r="M379" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="380" spans="1:13">
+      <c r="N379" s="7">
+        <f t="shared" si="5"/>
+        <v>20872</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
       <c r="A380" s="3" t="s">
         <v>391</v>
       </c>
@@ -18072,8 +19620,12 @@
       <c r="M380" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="381" spans="1:13">
+      <c r="N380" s="7">
+        <f t="shared" si="5"/>
+        <v>23369</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
       <c r="A381" s="3" t="s">
         <v>392</v>
       </c>
@@ -18111,8 +19663,12 @@
       <c r="M381" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="382" spans="1:13">
+      <c r="N381" s="7">
+        <f t="shared" si="5"/>
+        <v>26342</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
       <c r="A382" s="3" t="s">
         <v>393</v>
       </c>
@@ -18150,8 +19706,12 @@
       <c r="M382" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="383" spans="1:13">
+      <c r="N382" s="7">
+        <f t="shared" si="5"/>
+        <v>27388</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
       <c r="A383" s="3" t="s">
         <v>394</v>
       </c>
@@ -18189,8 +19749,12 @@
       <c r="M383" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="384" spans="1:13">
+      <c r="N383" s="7">
+        <f t="shared" si="5"/>
+        <v>33167</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
       <c r="A384" s="3" t="s">
         <v>395</v>
       </c>
@@ -18228,8 +19792,12 @@
       <c r="M384" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="385" spans="1:13">
+      <c r="N384" s="7">
+        <f t="shared" si="5"/>
+        <v>35783</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
       <c r="A385" s="3" t="s">
         <v>396</v>
       </c>
@@ -18267,8 +19835,12 @@
       <c r="M385" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="386" spans="1:13">
+      <c r="N385" s="7">
+        <f t="shared" si="5"/>
+        <v>33092</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14">
       <c r="A386" s="3" t="s">
         <v>397</v>
       </c>
@@ -18306,8 +19878,12 @@
       <c r="M386" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="387" spans="1:13">
+      <c r="N386" s="7">
+        <f t="shared" si="5"/>
+        <v>23517</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14">
       <c r="A387" s="3" t="s">
         <v>398</v>
       </c>
@@ -18345,8 +19921,12 @@
       <c r="M387" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="388" spans="1:13">
+      <c r="N387" s="7">
+        <f t="shared" ref="N387:N450" si="6">SUM(B387:M387)</f>
+        <v>14065</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14">
       <c r="A388" s="3" t="s">
         <v>399</v>
       </c>
@@ -18384,8 +19964,12 @@
       <c r="M388" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="389" spans="1:13">
+      <c r="N388" s="7">
+        <f t="shared" si="6"/>
+        <v>13273</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14">
       <c r="A389" s="3" t="s">
         <v>400</v>
       </c>
@@ -18423,8 +20007,12 @@
       <c r="M389" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="390" spans="1:13">
+      <c r="N389" s="7">
+        <f t="shared" si="6"/>
+        <v>17788</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14">
       <c r="A390" s="3" t="s">
         <v>401</v>
       </c>
@@ -18462,8 +20050,12 @@
       <c r="M390" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="391" spans="1:13">
+      <c r="N390" s="7">
+        <f t="shared" si="6"/>
+        <v>21022</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14">
       <c r="A391" s="3" t="s">
         <v>402</v>
       </c>
@@ -18501,8 +20093,12 @@
       <c r="M391" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="392" spans="1:13">
+      <c r="N391" s="7">
+        <f t="shared" si="6"/>
+        <v>19236</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14">
       <c r="A392" s="3" t="s">
         <v>403</v>
       </c>
@@ -18540,8 +20136,12 @@
       <c r="M392" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="393" spans="1:13">
+      <c r="N392" s="7">
+        <f t="shared" si="6"/>
+        <v>21354</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14">
       <c r="A393" s="3" t="s">
         <v>404</v>
       </c>
@@ -18579,8 +20179,12 @@
       <c r="M393" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="394" spans="1:13">
+      <c r="N393" s="7">
+        <f t="shared" si="6"/>
+        <v>19104</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14">
       <c r="A394" s="3" t="s">
         <v>405</v>
       </c>
@@ -18618,8 +20222,12 @@
       <c r="M394" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="395" spans="1:13">
+      <c r="N394" s="7">
+        <f t="shared" si="6"/>
+        <v>19004</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14">
       <c r="A395" s="3" t="s">
         <v>406</v>
       </c>
@@ -18657,8 +20265,12 @@
       <c r="M395" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="396" spans="1:13">
+      <c r="N395" s="7">
+        <f t="shared" si="6"/>
+        <v>20402</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
       <c r="A396" s="3" t="s">
         <v>407</v>
       </c>
@@ -18696,8 +20308,12 @@
       <c r="M396" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="397" spans="1:13">
+      <c r="N396" s="7">
+        <f t="shared" si="6"/>
+        <v>21978</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14">
       <c r="A397" s="3" t="s">
         <v>408</v>
       </c>
@@ -18735,8 +20351,12 @@
       <c r="M397" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="398" spans="1:13">
+      <c r="N397" s="7">
+        <f t="shared" si="6"/>
+        <v>25780</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14">
       <c r="A398" s="3" t="s">
         <v>409</v>
       </c>
@@ -18774,8 +20394,12 @@
       <c r="M398" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="399" spans="1:13">
+      <c r="N398" s="7">
+        <f t="shared" si="6"/>
+        <v>25601</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14">
       <c r="A399" s="3" t="s">
         <v>410</v>
       </c>
@@ -18813,8 +20437,12 @@
       <c r="M399" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="400" spans="1:13">
+      <c r="N399" s="7">
+        <f t="shared" si="6"/>
+        <v>21052</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14">
       <c r="A400" s="3" t="s">
         <v>411</v>
       </c>
@@ -18852,8 +20480,12 @@
       <c r="M400" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="401" spans="1:13">
+      <c r="N400" s="7">
+        <f t="shared" si="6"/>
+        <v>19201</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14">
       <c r="A401" s="3" t="s">
         <v>412</v>
       </c>
@@ -18891,8 +20523,12 @@
       <c r="M401" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="402" spans="1:13">
+      <c r="N401" s="7">
+        <f t="shared" si="6"/>
+        <v>27903</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14">
       <c r="A402" s="3" t="s">
         <v>413</v>
       </c>
@@ -18930,8 +20566,12 @@
       <c r="M402" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="403" spans="1:13">
+      <c r="N402" s="7">
+        <f t="shared" si="6"/>
+        <v>29251</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14">
       <c r="A403" s="3" t="s">
         <v>414</v>
       </c>
@@ -18969,8 +20609,12 @@
       <c r="M403" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="404" spans="1:13">
+      <c r="N403" s="7">
+        <f t="shared" si="6"/>
+        <v>27790</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14">
       <c r="A404" s="3" t="s">
         <v>415</v>
       </c>
@@ -19008,8 +20652,12 @@
       <c r="M404" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="405" spans="1:13">
+      <c r="N404" s="7">
+        <f t="shared" si="6"/>
+        <v>28449</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14">
       <c r="A405" s="3" t="s">
         <v>416</v>
       </c>
@@ -19047,8 +20695,12 @@
       <c r="M405" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="406" spans="1:13">
+      <c r="N405" s="7">
+        <f t="shared" si="6"/>
+        <v>23470</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14">
       <c r="A406" s="3" t="s">
         <v>417</v>
       </c>
@@ -19086,8 +20738,12 @@
       <c r="M406" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="407" spans="1:13">
+      <c r="N406" s="7">
+        <f t="shared" si="6"/>
+        <v>25816</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14">
       <c r="A407" s="3" t="s">
         <v>418</v>
       </c>
@@ -19125,8 +20781,12 @@
       <c r="M407" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="408" spans="1:13">
+      <c r="N407" s="7">
+        <f t="shared" si="6"/>
+        <v>26282</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14">
       <c r="A408" s="3" t="s">
         <v>419</v>
       </c>
@@ -19164,8 +20824,12 @@
       <c r="M408" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="409" spans="1:13">
+      <c r="N408" s="7">
+        <f t="shared" si="6"/>
+        <v>24674</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14">
       <c r="A409" s="3" t="s">
         <v>420</v>
       </c>
@@ -19203,8 +20867,12 @@
       <c r="M409" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="410" spans="1:13">
+      <c r="N409" s="7">
+        <f t="shared" si="6"/>
+        <v>32289</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14">
       <c r="A410" s="3" t="s">
         <v>421</v>
       </c>
@@ -19242,8 +20910,12 @@
       <c r="M410" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="411" spans="1:13">
+      <c r="N410" s="7">
+        <f t="shared" si="6"/>
+        <v>30384</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14">
       <c r="A411" s="3" t="s">
         <v>422</v>
       </c>
@@ -19281,8 +20953,12 @@
       <c r="M411" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="412" spans="1:13">
+      <c r="N411" s="7">
+        <f t="shared" si="6"/>
+        <v>20917</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14">
       <c r="A412" s="3" t="s">
         <v>423</v>
       </c>
@@ -19320,8 +20996,12 @@
       <c r="M412" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="413" spans="1:13">
+      <c r="N412" s="7">
+        <f t="shared" si="6"/>
+        <v>18098</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14">
       <c r="A413" s="3" t="s">
         <v>424</v>
       </c>
@@ -19359,8 +21039,12 @@
       <c r="M413" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="414" spans="1:13">
+      <c r="N413" s="7">
+        <f t="shared" si="6"/>
+        <v>24574</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14">
       <c r="A414" s="3" t="s">
         <v>425</v>
       </c>
@@ -19398,8 +21082,12 @@
       <c r="M414" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="415" spans="1:13">
+      <c r="N414" s="7">
+        <f t="shared" si="6"/>
+        <v>23640</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14">
       <c r="A415" s="3" t="s">
         <v>426</v>
       </c>
@@ -19437,8 +21125,12 @@
       <c r="M415" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="416" spans="1:13">
+      <c r="N415" s="7">
+        <f t="shared" si="6"/>
+        <v>26417</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14">
       <c r="A416" s="3" t="s">
         <v>427</v>
       </c>
@@ -19476,8 +21168,12 @@
       <c r="M416" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="417" spans="1:13">
+      <c r="N416" s="7">
+        <f t="shared" si="6"/>
+        <v>27830</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14">
       <c r="A417" s="3" t="s">
         <v>428</v>
       </c>
@@ -19515,8 +21211,12 @@
       <c r="M417" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="418" spans="1:13">
+      <c r="N417" s="7">
+        <f t="shared" si="6"/>
+        <v>24837</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14">
       <c r="A418" s="3" t="s">
         <v>429</v>
       </c>
@@ -19554,8 +21254,12 @@
       <c r="M418" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="419" spans="1:13">
+      <c r="N418" s="7">
+        <f t="shared" si="6"/>
+        <v>28912</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14">
       <c r="A419" s="3" t="s">
         <v>430</v>
       </c>
@@ -19593,8 +21297,12 @@
       <c r="M419" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="420" spans="1:13">
+      <c r="N419" s="7">
+        <f t="shared" si="6"/>
+        <v>31229</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14">
       <c r="A420" s="3" t="s">
         <v>431</v>
       </c>
@@ -19632,8 +21340,12 @@
       <c r="M420" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="421" spans="1:13">
+      <c r="N420" s="7">
+        <f t="shared" si="6"/>
+        <v>31911</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14">
       <c r="A421" s="3" t="s">
         <v>432</v>
       </c>
@@ -19671,8 +21383,12 @@
       <c r="M421" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="422" spans="1:13">
+      <c r="N421" s="7">
+        <f t="shared" si="6"/>
+        <v>33232</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14">
       <c r="A422" s="3" t="s">
         <v>433</v>
       </c>
@@ -19710,8 +21426,12 @@
       <c r="M422" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="423" spans="1:13">
+      <c r="N422" s="7">
+        <f t="shared" si="6"/>
+        <v>24594</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14">
       <c r="A423" s="3" t="s">
         <v>434</v>
       </c>
@@ -19749,8 +21469,12 @@
       <c r="M423" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="424" spans="1:13">
+      <c r="N423" s="7">
+        <f t="shared" si="6"/>
+        <v>15672</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14">
       <c r="A424" s="3" t="s">
         <v>435</v>
       </c>
@@ -19788,8 +21512,12 @@
       <c r="M424" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="425" spans="1:13">
+      <c r="N424" s="7">
+        <f t="shared" si="6"/>
+        <v>14797</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14">
       <c r="A425" s="3" t="s">
         <v>436</v>
       </c>
@@ -19827,8 +21555,12 @@
       <c r="M425" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="426" spans="1:13">
+      <c r="N425" s="7">
+        <f t="shared" si="6"/>
+        <v>18939</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14">
       <c r="A426" s="3" t="s">
         <v>437</v>
       </c>
@@ -19866,8 +21598,12 @@
       <c r="M426" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="427" spans="1:13">
+      <c r="N426" s="7">
+        <f t="shared" si="6"/>
+        <v>22430</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14">
       <c r="A427" s="3" t="s">
         <v>438</v>
       </c>
@@ -19905,8 +21641,12 @@
       <c r="M427" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="428" spans="1:13">
+      <c r="N427" s="7">
+        <f t="shared" si="6"/>
+        <v>23331</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14">
       <c r="A428" s="3" t="s">
         <v>439</v>
       </c>
@@ -19944,8 +21684,12 @@
       <c r="M428" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="429" spans="1:13">
+      <c r="N428" s="7">
+        <f t="shared" si="6"/>
+        <v>21193</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14">
       <c r="A429" s="3" t="s">
         <v>440</v>
       </c>
@@ -19983,8 +21727,12 @@
       <c r="M429" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="430" spans="1:13">
+      <c r="N429" s="7">
+        <f t="shared" si="6"/>
+        <v>22616</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14">
       <c r="A430" s="3" t="s">
         <v>441</v>
       </c>
@@ -20022,8 +21770,12 @@
       <c r="M430" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="431" spans="1:13">
+      <c r="N430" s="7">
+        <f t="shared" si="6"/>
+        <v>22938</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14">
       <c r="A431" s="3" t="s">
         <v>442</v>
       </c>
@@ -20061,8 +21813,12 @@
       <c r="M431" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="432" spans="1:13">
+      <c r="N431" s="7">
+        <f t="shared" si="6"/>
+        <v>23917</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14">
       <c r="A432" s="3" t="s">
         <v>443</v>
       </c>
@@ -20100,8 +21856,12 @@
       <c r="M432" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="433" spans="1:13">
+      <c r="N432" s="7">
+        <f t="shared" si="6"/>
+        <v>28621</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14">
       <c r="A433" s="3" t="s">
         <v>444</v>
       </c>
@@ -20139,8 +21899,12 @@
       <c r="M433" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="434" spans="1:13">
+      <c r="N433" s="7">
+        <f t="shared" si="6"/>
+        <v>31939</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14">
       <c r="A434" s="3" t="s">
         <v>445</v>
       </c>
@@ -20178,8 +21942,12 @@
       <c r="M434" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="435" spans="1:13">
+      <c r="N434" s="7">
+        <f t="shared" si="6"/>
+        <v>25802</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14">
       <c r="A435" s="3" t="s">
         <v>446</v>
       </c>
@@ -20217,8 +21985,12 @@
       <c r="M435" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="436" spans="1:13">
+      <c r="N435" s="7">
+        <f t="shared" si="6"/>
+        <v>17001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14">
       <c r="A436" s="3" t="s">
         <v>447</v>
       </c>
@@ -20256,8 +22028,12 @@
       <c r="M436" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="437" spans="1:13">
+      <c r="N436" s="7">
+        <f t="shared" si="6"/>
+        <v>15591</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14">
       <c r="A437" s="3" t="s">
         <v>448</v>
       </c>
@@ -20295,8 +22071,12 @@
       <c r="M437" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="438" spans="1:13">
+      <c r="N437" s="7">
+        <f t="shared" si="6"/>
+        <v>19246</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14">
       <c r="A438" s="3" t="s">
         <v>449</v>
       </c>
@@ -20334,8 +22114,12 @@
       <c r="M438" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="439" spans="1:13">
+      <c r="N438" s="7">
+        <f t="shared" si="6"/>
+        <v>23451</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14">
       <c r="A439" s="3" t="s">
         <v>450</v>
       </c>
@@ -20373,8 +22157,12 @@
       <c r="M439" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="440" spans="1:13">
+      <c r="N439" s="7">
+        <f t="shared" si="6"/>
+        <v>23827</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14">
       <c r="A440" s="3" t="s">
         <v>451</v>
       </c>
@@ -20412,8 +22200,12 @@
       <c r="M440" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="441" spans="1:13">
+      <c r="N440" s="7">
+        <f t="shared" si="6"/>
+        <v>22864</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14">
       <c r="A441" s="3" t="s">
         <v>452</v>
       </c>
@@ -20451,8 +22243,12 @@
       <c r="M441" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="442" spans="1:13">
+      <c r="N441" s="7">
+        <f t="shared" si="6"/>
+        <v>24873</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14">
       <c r="A442" s="3" t="s">
         <v>453</v>
       </c>
@@ -20490,8 +22286,12 @@
       <c r="M442" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="443" spans="1:13">
+      <c r="N442" s="7">
+        <f t="shared" si="6"/>
+        <v>24923</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14">
       <c r="A443" s="3" t="s">
         <v>454</v>
       </c>
@@ -20529,8 +22329,12 @@
       <c r="M443" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="444" spans="1:13">
+      <c r="N443" s="7">
+        <f t="shared" si="6"/>
+        <v>26879</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14">
       <c r="A444" s="3" t="s">
         <v>455</v>
       </c>
@@ -20568,8 +22372,12 @@
       <c r="M444" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="445" spans="1:13">
+      <c r="N444" s="7">
+        <f t="shared" si="6"/>
+        <v>27240</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14">
       <c r="A445" s="3" t="s">
         <v>456</v>
       </c>
@@ -20607,8 +22415,12 @@
       <c r="M445" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="446" spans="1:13">
+      <c r="N445" s="7">
+        <f t="shared" si="6"/>
+        <v>20990</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14">
       <c r="A446" s="3" t="s">
         <v>457</v>
       </c>
@@ -20646,8 +22458,12 @@
       <c r="M446" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="447" spans="1:13">
+      <c r="N446" s="7">
+        <f t="shared" si="6"/>
+        <v>20318</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14">
       <c r="A447" s="3" t="s">
         <v>458</v>
       </c>
@@ -20685,8 +22501,12 @@
       <c r="M447" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="448" spans="1:13">
+      <c r="N447" s="7">
+        <f t="shared" si="6"/>
+        <v>16543</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14">
       <c r="A448" s="3" t="s">
         <v>459</v>
       </c>
@@ -20724,8 +22544,12 @@
       <c r="M448" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="449" spans="1:13">
+      <c r="N448" s="7">
+        <f t="shared" si="6"/>
+        <v>14614</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14">
       <c r="A449" s="3" t="s">
         <v>460</v>
       </c>
@@ -20763,8 +22587,12 @@
       <c r="M449" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="450" spans="1:13">
+      <c r="N449" s="7">
+        <f t="shared" si="6"/>
+        <v>19658</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14">
       <c r="A450" s="3" t="s">
         <v>461</v>
       </c>
@@ -20802,8 +22630,12 @@
       <c r="M450" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="451" spans="1:13">
+      <c r="N450" s="7">
+        <f t="shared" si="6"/>
+        <v>23278</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14">
       <c r="A451" s="3" t="s">
         <v>462</v>
       </c>
@@ -20841,8 +22673,12 @@
       <c r="M451" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="452" spans="1:13">
+      <c r="N451" s="7">
+        <f t="shared" ref="N451:N514" si="7">SUM(B451:M451)</f>
+        <v>21865</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14">
       <c r="A452" s="3" t="s">
         <v>463</v>
       </c>
@@ -20880,8 +22716,12 @@
       <c r="M452" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="453" spans="1:13">
+      <c r="N452" s="7">
+        <f t="shared" si="7"/>
+        <v>22976</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14">
       <c r="A453" s="3" t="s">
         <v>464</v>
       </c>
@@ -20919,8 +22759,12 @@
       <c r="M453" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="454" spans="1:13">
+      <c r="N453" s="7">
+        <f t="shared" si="7"/>
+        <v>24958</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14">
       <c r="A454" s="3" t="s">
         <v>465</v>
       </c>
@@ -20958,8 +22802,12 @@
       <c r="M454" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="455" spans="1:13">
+      <c r="N454" s="7">
+        <f t="shared" si="7"/>
+        <v>23460</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14">
       <c r="A455" s="3" t="s">
         <v>466</v>
       </c>
@@ -20997,8 +22845,12 @@
       <c r="M455" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="456" spans="1:13">
+      <c r="N455" s="7">
+        <f t="shared" si="7"/>
+        <v>25253</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14">
       <c r="A456" s="3" t="s">
         <v>467</v>
       </c>
@@ -21036,8 +22888,12 @@
       <c r="M456" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="457" spans="1:13">
+      <c r="N456" s="7">
+        <f t="shared" si="7"/>
+        <v>22171</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14">
       <c r="A457" s="3" t="s">
         <v>468</v>
       </c>
@@ -21075,8 +22931,12 @@
       <c r="M457" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="458" spans="1:13">
+      <c r="N457" s="7">
+        <f t="shared" si="7"/>
+        <v>21109</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14">
       <c r="A458" s="3" t="s">
         <v>469</v>
       </c>
@@ -21114,8 +22974,12 @@
       <c r="M458" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="459" spans="1:13">
+      <c r="N458" s="7">
+        <f t="shared" si="7"/>
+        <v>19271</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14">
       <c r="A459" s="3" t="s">
         <v>470</v>
       </c>
@@ -21153,8 +23017,12 @@
       <c r="M459" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="460" spans="1:13">
+      <c r="N459" s="7">
+        <f t="shared" si="7"/>
+        <v>13976</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14">
       <c r="A460" s="3" t="s">
         <v>471</v>
       </c>
@@ -21192,8 +23060,12 @@
       <c r="M460" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="461" spans="1:13">
+      <c r="N460" s="7">
+        <f t="shared" si="7"/>
+        <v>11938</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14">
       <c r="A461" s="3" t="s">
         <v>472</v>
       </c>
@@ -21231,8 +23103,12 @@
       <c r="M461" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="462" spans="1:13">
+      <c r="N461" s="7">
+        <f t="shared" si="7"/>
+        <v>16037</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14">
       <c r="A462" s="3" t="s">
         <v>473</v>
       </c>
@@ -21270,8 +23146,12 @@
       <c r="M462" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="463" spans="1:13">
+      <c r="N462" s="7">
+        <f t="shared" si="7"/>
+        <v>16794</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14">
       <c r="A463" s="3" t="s">
         <v>474</v>
       </c>
@@ -21309,8 +23189,12 @@
       <c r="M463" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="464" spans="1:13">
+      <c r="N463" s="7">
+        <f t="shared" si="7"/>
+        <v>14306</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14">
       <c r="A464" s="3" t="s">
         <v>475</v>
       </c>
@@ -21348,8 +23232,12 @@
       <c r="M464" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="465" spans="1:13">
+      <c r="N464" s="7">
+        <f t="shared" si="7"/>
+        <v>15668</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14">
       <c r="A465" s="3" t="s">
         <v>476</v>
       </c>
@@ -21387,8 +23275,12 @@
       <c r="M465" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="466" spans="1:13">
+      <c r="N465" s="7">
+        <f t="shared" si="7"/>
+        <v>15967</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14">
       <c r="A466" s="3" t="s">
         <v>477</v>
       </c>
@@ -21426,8 +23318,12 @@
       <c r="M466" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="467" spans="1:13">
+      <c r="N466" s="7">
+        <f t="shared" si="7"/>
+        <v>17494</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14">
       <c r="A467" s="3" t="s">
         <v>478</v>
       </c>
@@ -21465,8 +23361,12 @@
       <c r="M467" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="468" spans="1:13">
+      <c r="N467" s="7">
+        <f t="shared" si="7"/>
+        <v>20643</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14">
       <c r="A468" s="3" t="s">
         <v>479</v>
       </c>
@@ -21504,8 +23404,12 @@
       <c r="M468" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="469" spans="1:13">
+      <c r="N468" s="7">
+        <f t="shared" si="7"/>
+        <v>18271</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14">
       <c r="A469" s="3" t="s">
         <v>480</v>
       </c>
@@ -21543,8 +23447,12 @@
       <c r="M469" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="470" spans="1:13">
+      <c r="N469" s="7">
+        <f t="shared" si="7"/>
+        <v>18501</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14">
       <c r="A470" s="3" t="s">
         <v>481</v>
       </c>
@@ -21582,8 +23490,12 @@
       <c r="M470" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="471" spans="1:13">
+      <c r="N470" s="7">
+        <f t="shared" si="7"/>
+        <v>16631</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14">
       <c r="A471" s="3" t="s">
         <v>482</v>
       </c>
@@ -21621,8 +23533,12 @@
       <c r="M471" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="472" spans="1:13">
+      <c r="N471" s="7">
+        <f t="shared" si="7"/>
+        <v>11387</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14">
       <c r="A472" s="3" t="s">
         <v>483</v>
       </c>
@@ -21660,8 +23576,12 @@
       <c r="M472" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="473" spans="1:13">
+      <c r="N472" s="7">
+        <f t="shared" si="7"/>
+        <v>10468</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14">
       <c r="A473" s="3" t="s">
         <v>484</v>
       </c>
@@ -21699,8 +23619,12 @@
       <c r="M473" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="474" spans="1:13">
+      <c r="N473" s="7">
+        <f t="shared" si="7"/>
+        <v>14534</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14">
       <c r="A474" s="3" t="s">
         <v>485</v>
       </c>
@@ -21738,8 +23662,12 @@
       <c r="M474" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="475" spans="1:13">
+      <c r="N474" s="7">
+        <f t="shared" si="7"/>
+        <v>14645</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14">
       <c r="A475" s="3" t="s">
         <v>486</v>
       </c>
@@ -21777,8 +23705,12 @@
       <c r="M475" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="476" spans="1:13">
+      <c r="N475" s="7">
+        <f t="shared" si="7"/>
+        <v>15739</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14">
       <c r="A476" s="3" t="s">
         <v>487</v>
       </c>
@@ -21816,8 +23748,12 @@
       <c r="M476" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="477" spans="1:13">
+      <c r="N476" s="7">
+        <f t="shared" si="7"/>
+        <v>17441</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14">
       <c r="A477" s="3" t="s">
         <v>488</v>
       </c>
@@ -21855,8 +23791,12 @@
       <c r="M477" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:13">
+      <c r="N477" s="7">
+        <f t="shared" si="7"/>
+        <v>15145</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14">
       <c r="A478" s="3" t="s">
         <v>489</v>
       </c>
@@ -21894,8 +23834,12 @@
       <c r="M478" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="479" spans="1:13">
+      <c r="N478" s="7">
+        <f t="shared" si="7"/>
+        <v>18203</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14">
       <c r="A479" s="3" t="s">
         <v>490</v>
       </c>
@@ -21933,8 +23877,12 @@
       <c r="M479" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="480" spans="1:13">
+      <c r="N479" s="7">
+        <f t="shared" si="7"/>
+        <v>17626</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14">
       <c r="A480" s="3" t="s">
         <v>491</v>
       </c>
@@ -21972,8 +23920,12 @@
       <c r="M480" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="481" spans="1:13">
+      <c r="N480" s="7">
+        <f t="shared" si="7"/>
+        <v>16728</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14">
       <c r="A481" s="3" t="s">
         <v>492</v>
       </c>
@@ -22011,8 +23963,12 @@
       <c r="M481" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="482" spans="1:13">
+      <c r="N481" s="7">
+        <f t="shared" si="7"/>
+        <v>17462</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14">
       <c r="A482" s="3" t="s">
         <v>493</v>
       </c>
@@ -22050,8 +24006,12 @@
       <c r="M482" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="483" spans="1:13">
+      <c r="N482" s="7">
+        <f t="shared" si="7"/>
+        <v>12582</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14">
       <c r="A483" s="3" t="s">
         <v>494</v>
       </c>
@@ -22089,8 +24049,12 @@
       <c r="M483" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="484" spans="1:13">
+      <c r="N483" s="7">
+        <f t="shared" si="7"/>
+        <v>10443</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14">
       <c r="A484" s="3" t="s">
         <v>495</v>
       </c>
@@ -22128,8 +24092,12 @@
       <c r="M484" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="485" spans="1:13">
+      <c r="N484" s="7">
+        <f t="shared" si="7"/>
+        <v>13216</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14">
       <c r="A485" s="3" t="s">
         <v>496</v>
       </c>
@@ -22167,8 +24135,12 @@
       <c r="M485" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="486" spans="1:13">
+      <c r="N485" s="7">
+        <f t="shared" si="7"/>
+        <v>16813</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14">
       <c r="A486" s="3" t="s">
         <v>497</v>
       </c>
@@ -22206,8 +24178,12 @@
       <c r="M486" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="487" spans="1:13">
+      <c r="N486" s="7">
+        <f t="shared" si="7"/>
+        <v>15555</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14">
       <c r="A487" s="3" t="s">
         <v>498</v>
       </c>
@@ -22245,8 +24221,12 @@
       <c r="M487" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="488" spans="1:13">
+      <c r="N487" s="7">
+        <f t="shared" si="7"/>
+        <v>15109</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14">
       <c r="A488" s="3" t="s">
         <v>499</v>
       </c>
@@ -22284,8 +24264,12 @@
       <c r="M488" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="489" spans="1:13">
+      <c r="N488" s="7">
+        <f t="shared" si="7"/>
+        <v>12932</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14">
       <c r="A489" s="3" t="s">
         <v>500</v>
       </c>
@@ -22323,8 +24307,12 @@
       <c r="M489" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:13">
+      <c r="N489" s="7">
+        <f t="shared" si="7"/>
+        <v>10928</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14">
       <c r="A490" s="3" t="s">
         <v>501</v>
       </c>
@@ -22362,8 +24350,12 @@
       <c r="M490" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="491" spans="1:13">
+      <c r="N490" s="7">
+        <f t="shared" si="7"/>
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14">
       <c r="A491" s="3" t="s">
         <v>502</v>
       </c>
@@ -22401,8 +24393,12 @@
       <c r="M491" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="492" spans="1:13">
+      <c r="N491" s="7">
+        <f t="shared" si="7"/>
+        <v>12053</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14">
       <c r="A492" s="3" t="s">
         <v>503</v>
       </c>
@@ -22440,8 +24436,12 @@
       <c r="M492" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:13">
+      <c r="N492" s="7">
+        <f t="shared" si="7"/>
+        <v>12035</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14">
       <c r="A493" s="3" t="s">
         <v>504</v>
       </c>
@@ -22479,8 +24479,12 @@
       <c r="M493" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="494" spans="1:13">
+      <c r="N493" s="7">
+        <f t="shared" si="7"/>
+        <v>13312</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14">
       <c r="A494" s="3" t="s">
         <v>505</v>
       </c>
@@ -22518,8 +24522,12 @@
       <c r="M494" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:13">
+      <c r="N494" s="7">
+        <f t="shared" si="7"/>
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14">
       <c r="A495" s="3" t="s">
         <v>506</v>
       </c>
@@ -22557,8 +24565,12 @@
       <c r="M495" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="496" spans="1:13">
+      <c r="N495" s="7">
+        <f t="shared" si="7"/>
+        <v>8609</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14">
       <c r="A496" s="3" t="s">
         <v>507</v>
       </c>
@@ -22596,8 +24608,12 @@
       <c r="M496" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="497" spans="1:13">
+      <c r="N496" s="7">
+        <f t="shared" si="7"/>
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14">
       <c r="A497" s="3" t="s">
         <v>508</v>
       </c>
@@ -22635,8 +24651,12 @@
       <c r="M497" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:13">
+      <c r="N497" s="7">
+        <f t="shared" si="7"/>
+        <v>9946</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14">
       <c r="A498" s="3" t="s">
         <v>509</v>
       </c>
@@ -22674,8 +24694,12 @@
       <c r="M498" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="499" spans="1:13">
+      <c r="N498" s="7">
+        <f t="shared" si="7"/>
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14">
       <c r="A499" s="3" t="s">
         <v>510</v>
       </c>
@@ -22713,8 +24737,12 @@
       <c r="M499" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="500" spans="1:13">
+      <c r="N499" s="7">
+        <f t="shared" si="7"/>
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14">
       <c r="A500" s="3" t="s">
         <v>511</v>
       </c>
@@ -22752,8 +24780,12 @@
       <c r="M500" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="501" spans="1:13">
+      <c r="N500" s="7">
+        <f t="shared" si="7"/>
+        <v>10712</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14">
       <c r="A501" s="3" t="s">
         <v>512</v>
       </c>
@@ -22791,8 +24823,12 @@
       <c r="M501" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="502" spans="1:13">
+      <c r="N501" s="7">
+        <f t="shared" si="7"/>
+        <v>12394</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14">
       <c r="A502" s="3" t="s">
         <v>513</v>
       </c>
@@ -22830,8 +24866,12 @@
       <c r="M502" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="503" spans="1:13">
+      <c r="N502" s="7">
+        <f t="shared" si="7"/>
+        <v>13543</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14">
       <c r="A503" s="3" t="s">
         <v>514</v>
       </c>
@@ -22869,8 +24909,12 @@
       <c r="M503" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:13">
+      <c r="N503" s="7">
+        <f t="shared" si="7"/>
+        <v>17968</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14">
       <c r="A504" s="3" t="s">
         <v>515</v>
       </c>
@@ -22908,8 +24952,12 @@
       <c r="M504" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:13">
+      <c r="N504" s="7">
+        <f t="shared" si="7"/>
+        <v>22560</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14">
       <c r="A505" s="3" t="s">
         <v>516</v>
       </c>
@@ -22947,8 +24995,12 @@
       <c r="M505" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="506" spans="1:13">
+      <c r="N505" s="7">
+        <f t="shared" si="7"/>
+        <v>21814</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14">
       <c r="A506" s="3" t="s">
         <v>517</v>
       </c>
@@ -22986,8 +25038,12 @@
       <c r="M506" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="507" spans="1:13">
+      <c r="N506" s="7">
+        <f t="shared" si="7"/>
+        <v>14589</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14">
       <c r="A507" s="3" t="s">
         <v>518</v>
       </c>
@@ -23025,8 +25081,12 @@
       <c r="M507" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="508" spans="1:13">
+      <c r="N507" s="7">
+        <f t="shared" si="7"/>
+        <v>10253</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14">
       <c r="A508" s="3" t="s">
         <v>519</v>
       </c>
@@ -23062,8 +25122,12 @@
       <c r="M508" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="509" spans="1:13">
+      <c r="N508" s="7">
+        <f t="shared" si="7"/>
+        <v>9949</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14">
       <c r="A509" s="3" t="s">
         <v>520</v>
       </c>
@@ -23099,8 +25163,12 @@
       <c r="M509" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="510" spans="1:13">
+      <c r="N509" s="7">
+        <f t="shared" si="7"/>
+        <v>13020</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14">
       <c r="A510" s="3" t="s">
         <v>521</v>
       </c>
@@ -23136,8 +25204,12 @@
       <c r="M510" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="511" spans="1:13">
+      <c r="N510" s="7">
+        <f t="shared" si="7"/>
+        <v>16040</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14">
       <c r="A511" s="3" t="s">
         <v>522</v>
       </c>
@@ -23173,8 +25245,12 @@
       <c r="M511" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="512" spans="1:13">
+      <c r="N511" s="7">
+        <f t="shared" si="7"/>
+        <v>16754</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14">
       <c r="A512" s="3" t="s">
         <v>523</v>
       </c>
@@ -23212,8 +25288,12 @@
       <c r="M512" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:13">
+      <c r="N512" s="7">
+        <f t="shared" si="7"/>
+        <v>16157</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14">
       <c r="A513" s="3" t="s">
         <v>524</v>
       </c>
@@ -23251,8 +25331,12 @@
       <c r="M513" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="514" spans="1:13">
+      <c r="N513" s="7">
+        <f t="shared" si="7"/>
+        <v>16737</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14">
       <c r="A514" s="3" t="s">
         <v>525</v>
       </c>
@@ -23290,8 +25374,12 @@
       <c r="M514" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:13">
+      <c r="N514" s="7">
+        <f t="shared" si="7"/>
+        <v>14363</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14">
       <c r="A515" s="3" t="s">
         <v>526</v>
       </c>
@@ -23329,8 +25417,12 @@
       <c r="M515" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="516" spans="1:13">
+      <c r="N515" s="7">
+        <f t="shared" ref="N515:N519" si="8">SUM(B515:M515)</f>
+        <v>11734</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14">
       <c r="A516" s="3" t="s">
         <v>527</v>
       </c>
@@ -23368,8 +25460,12 @@
       <c r="M516" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="517" spans="1:13">
+      <c r="N516" s="7">
+        <f t="shared" si="8"/>
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14">
       <c r="A517" s="3" t="s">
         <v>528</v>
       </c>
@@ -23407,8 +25503,12 @@
       <c r="M517" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="518" spans="1:13">
+      <c r="N517" s="7">
+        <f t="shared" si="8"/>
+        <v>12970</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14">
       <c r="A518" s="3" t="s">
         <v>529</v>
       </c>
@@ -23446,8 +25546,12 @@
       <c r="M518" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:13">
+      <c r="N518" s="7">
+        <f t="shared" si="8"/>
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14">
       <c r="A519" s="3" t="s">
         <v>530</v>
       </c>
@@ -23484,6 +25588,10 @@
       <c r="L519" s="5"/>
       <c r="M519" s="4">
         <v>2</v>
+      </c>
+      <c r="N519" s="7">
+        <f t="shared" si="8"/>
+        <v>9519</v>
       </c>
     </row>
   </sheetData>
